--- a/trend_results/Rivers/MangawheroatPakihiRdBridge_27eff78f83.xlsx
+++ b/trend_results/Rivers/MangawheroatPakihiRdBridge_27eff78f83.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W35"/>
+  <dimension ref="A1:W49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>parameter name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -1301,7 +1301,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.30266215780522</v>
+        <v>0.69733784219478</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1334,7 +1334,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q10" t="n">
@@ -2025,7 +2025,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.531891745892326</v>
+        <v>0.468108254107674</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.0528140677379052</v>
+        <v>0.947185932262095</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2604,7 +2604,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Very unlikely increasing</t>
+          <t>Very likely increasing</t>
         </is>
       </c>
       <c r="Q24" t="n">
@@ -3098,14 +3098,14 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -3113,31 +3113,31 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.231216363225238</v>
+        <v>0.145021077213685</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0.67479674796748</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.453</v>
+        <v>12</v>
       </c>
       <c r="K30" t="n">
-        <v>-0.0265151063301249</v>
+        <v>0.289880952380952</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.114981391243833</v>
+        <v>-0.140288200433808</v>
       </c>
       <c r="M30" t="n">
-        <v>0.037183361723812</v>
+        <v>0.83391789570025</v>
       </c>
       <c r="N30" t="n">
-        <v>-5.85322435543596</v>
+        <v>2.4156746031746</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3175,7 +3175,11 @@
           <t>Whau_3d</t>
         </is>
       </c>
-      <c r="W30" t="inlineStr"/>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>mg/m2</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3185,14 +3189,14 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -3200,31 +3204,31 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.5</v>
+        <v>0.99991243077153</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>0.0125786163522013</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0.377358490566038</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J31" t="n">
-        <v>111.72</v>
+        <v>1.4</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.58309600669304</v>
+        <v>0.0497906542738715</v>
       </c>
       <c r="L31" t="n">
-        <v>-9.1143939930359</v>
+        <v>0.0249405190936149</v>
       </c>
       <c r="M31" t="n">
-        <v>1.93342373226569</v>
+        <v>0.0675139516267205</v>
       </c>
       <c r="N31" t="n">
-        <v>-0.521926250172789</v>
+        <v>3.55647530527653</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3233,7 +3237,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q31" t="n">
@@ -3262,7 +3266,11 @@
           <t>Whau_3d</t>
         </is>
       </c>
-      <c r="W31" t="inlineStr"/>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3272,14 +3280,14 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -3287,31 +3295,31 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.40324797025367</v>
+        <v>0.0021339475894669</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0.78735632183908</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>5.18</v>
+        <v>10.775</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.110803985323308</v>
+        <v>-0.0349940621665348</v>
       </c>
       <c r="L32" t="n">
-        <v>-1.27012850787846</v>
+        <v>-0.0539585188034631</v>
       </c>
       <c r="M32" t="n">
-        <v>0.456402108297304</v>
+        <v>-0.0149081632653058</v>
       </c>
       <c r="N32" t="n">
-        <v>-2.13907307573953</v>
+        <v>-0.324770878575729</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3320,7 +3328,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Exceptionally unlikely increasing</t>
         </is>
       </c>
       <c r="Q32" t="n">
@@ -3349,7 +3357,11 @@
           <t>Whau_3d</t>
         </is>
       </c>
-      <c r="W32" t="inlineStr"/>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3359,11 +3371,11 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D33" t="b">
         <v>0</v>
@@ -3374,31 +3386,31 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.0006410918709029</v>
+        <v>0.000139687087734</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>0.0168539325842697</v>
       </c>
       <c r="H33" t="n">
+        <v>0.168539325842697</v>
+      </c>
+      <c r="I33" t="n">
         <v>1</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
       <c r="J33" t="n">
-        <v>0.5620000000000001</v>
+        <v>0.014</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.0256486666666667</v>
+        <v>0.0003908507223113</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.0409606880799583</v>
+        <v>0.0002015162900837</v>
       </c>
       <c r="M33" t="n">
-        <v>-0.018535672868903</v>
+        <v>0.0005702576112412</v>
       </c>
       <c r="N33" t="n">
-        <v>-4.5638196915777</v>
+        <v>2.79179087365283</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3436,7 +3448,11 @@
           <t>Whau_3d</t>
         </is>
       </c>
-      <c r="W33" t="inlineStr"/>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3446,14 +3462,14 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -3461,31 +3477,31 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.105248850027669</v>
+        <v>0.8022965794342</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0.655367231638418</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>111.86</v>
+        <v>160</v>
       </c>
       <c r="K34" t="n">
-        <v>-1.26587748344371</v>
+        <v>-0.992308622019493</v>
       </c>
       <c r="L34" t="n">
-        <v>-2.01938433626718</v>
+        <v>-3.66364722688056</v>
       </c>
       <c r="M34" t="n">
-        <v>0.162014908927453</v>
+        <v>1.40265103645447</v>
       </c>
       <c r="N34" t="n">
-        <v>-1.13166233098848</v>
+        <v>-0.620192888762183</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3494,7 +3510,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q34" t="n">
@@ -3523,7 +3539,11 @@
           <t>Whau_3d</t>
         </is>
       </c>
-      <c r="W34" t="inlineStr"/>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3533,46 +3553,46 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.185546684761349</v>
+        <v>0.821438451097582</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>0.570588235294118</v>
       </c>
       <c r="H35" t="n">
+        <v>0.429411764705882</v>
+      </c>
+      <c r="I35" t="n">
         <v>1</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
       <c r="J35" t="n">
-        <v>5.1505</v>
+        <v>0.005</v>
       </c>
       <c r="K35" t="n">
-        <v>-0.257951038575668</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>-0.371504286287171</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0.0394667783901045</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>-5.00827179061582</v>
+        <v>0</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3581,7 +3601,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q35" t="n">
@@ -3610,7 +3630,1253 @@
           <t>Whau_3d</t>
         </is>
       </c>
-      <c r="W35" t="inlineStr"/>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Mangawhero at Pakihi Rd Bridge</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Nitrite Nitrogen (NO2)</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>15</v>
+      </c>
+      <c r="D36" t="b">
+        <v>0</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>0.0007289305949595</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.224358974358974</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.0961538461538462</v>
+      </c>
+      <c r="I36" t="n">
+        <v>2</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.0001285488104555</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.0001953329255555</v>
+      </c>
+      <c r="N36" t="n">
+        <v>3.21372026138912</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>Exceptionally unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>1799947</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5632818</v>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>Whau_3d</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Mangawhero at Pakihi Rd Bridge</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Nitrate Nitrogen (NO3)</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>15</v>
+      </c>
+      <c r="D37" t="b">
+        <v>1</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>0.0858170014996277</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.0188679245283019</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.893081761006289</v>
+      </c>
+      <c r="I37" t="n">
+        <v>1</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.231</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.001885858627665</v>
+      </c>
+      <c r="L37" t="n">
+        <v>-0.0005486087354471</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.0040670327601891</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.816389016305205</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>Very unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>1799947</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5632818</v>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>Whau_3d</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Mangawhero at Pakihi Rd Bridge</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>15</v>
+      </c>
+      <c r="D38" t="b">
+        <v>0</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>0.976368092436088</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.578034682080925</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>7.64</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.0143804190793447</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.0024699995363574</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.0267275754574422</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.188225380619694</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>Extremely likely increasing</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
+        <v>1799947</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5632818</v>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>Whau_3d</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Mangawhero at Pakihi Rd Bridge</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>15</v>
+      </c>
+      <c r="D39" t="b">
+        <v>1</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>0.138014095903671</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.769662921348315</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.247</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.0015080776811782</v>
+      </c>
+      <c r="L39" t="n">
+        <v>-0.0006222556621585</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.0034729371334646</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.610557765659213</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
+        <v>1799947</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5632818</v>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>Whau_3d</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Mangawhero at Pakihi Rd Bridge</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Total Nitrogen</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>15</v>
+      </c>
+      <c r="D40" t="b">
+        <v>1</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>0.54058901305631</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.533707865168539</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.3985</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>-0.0027319408761516</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.002507701244395</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q40" t="n">
+        <v>1799947</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5632818</v>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>Whau_3d</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Mangawhero at Pakihi Rd Bridge</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Total Phosphorus</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>15</v>
+      </c>
+      <c r="D41" t="b">
+        <v>1</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>0.299758454470317</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.286516853932584</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>-0.0001885231521126</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.0003305429864253</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q41" t="n">
+        <v>1799947</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5632818</v>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>Whau_3d</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Mangawhero at Pakihi Rd Bridge</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Turbidity</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>15</v>
+      </c>
+      <c r="D42" t="b">
+        <v>1</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>0.442303760712988</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.758426966292135</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.0020149383777565</v>
+      </c>
+      <c r="L42" t="n">
+        <v>-0.0149676225973217</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.0196692054529826</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.128340024060924</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q42" t="n">
+        <v>1799947</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5632818</v>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>Whau_3d</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>NTU/FNU</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Mangawhero at Pakihi Rd Bridge</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>5</v>
+      </c>
+      <c r="D43" t="b">
+        <v>0</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>0.231216363225238</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.453</v>
+      </c>
+      <c r="K43" t="n">
+        <v>-0.0265151063301249</v>
+      </c>
+      <c r="L43" t="n">
+        <v>-0.114981391243833</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.037183361723812</v>
+      </c>
+      <c r="N43" t="n">
+        <v>-5.85322435543596</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q43" t="n">
+        <v>1799947</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5632818</v>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>Whau_3d</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Mangawhero at Pakihi Rd Bridge</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>5</v>
+      </c>
+      <c r="D44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>111.72</v>
+      </c>
+      <c r="K44" t="n">
+        <v>-0.58309600669304</v>
+      </c>
+      <c r="L44" t="n">
+        <v>-9.1143939930359</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1.93342373226569</v>
+      </c>
+      <c r="N44" t="n">
+        <v>-0.521926250172789</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q44" t="n">
+        <v>1799947</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5632818</v>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>Whau_3d</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Mangawhero at Pakihi Rd Bridge</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>5</v>
+      </c>
+      <c r="D45" t="b">
+        <v>0</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>0.40324797025367</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>5.18</v>
+      </c>
+      <c r="K45" t="n">
+        <v>-0.110803985323308</v>
+      </c>
+      <c r="L45" t="n">
+        <v>-1.27012850787846</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.456402108297304</v>
+      </c>
+      <c r="N45" t="n">
+        <v>-2.13907307573953</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q45" t="n">
+        <v>1799947</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5632818</v>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>Whau_3d</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Mangawhero at Pakihi Rd Bridge</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>10</v>
+      </c>
+      <c r="D46" t="b">
+        <v>0</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>0.0006410918709029</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.5620000000000001</v>
+      </c>
+      <c r="K46" t="n">
+        <v>-0.0256486666666667</v>
+      </c>
+      <c r="L46" t="n">
+        <v>-0.0409606880799583</v>
+      </c>
+      <c r="M46" t="n">
+        <v>-0.018535672868903</v>
+      </c>
+      <c r="N46" t="n">
+        <v>-4.5638196915777</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>Exceptionally unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q46" t="n">
+        <v>1799947</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5632818</v>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>Whau_3d</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Mangawhero at Pakihi Rd Bridge</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>10</v>
+      </c>
+      <c r="D47" t="b">
+        <v>0</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>0.105248850027669</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>111.86</v>
+      </c>
+      <c r="K47" t="n">
+        <v>-1.26587748344371</v>
+      </c>
+      <c r="L47" t="n">
+        <v>-2.01938433626718</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.162014908927453</v>
+      </c>
+      <c r="N47" t="n">
+        <v>-1.13166233098848</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q47" t="n">
+        <v>1799947</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5632818</v>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>Whau_3d</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Mangawhero at Pakihi Rd Bridge</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>10</v>
+      </c>
+      <c r="D48" t="b">
+        <v>0</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>0.185546684761349</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>5.1505</v>
+      </c>
+      <c r="K48" t="n">
+        <v>-0.257951038575668</v>
+      </c>
+      <c r="L48" t="n">
+        <v>-0.371504286287171</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.0394667783901045</v>
+      </c>
+      <c r="N48" t="n">
+        <v>-5.00827179061582</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q48" t="n">
+        <v>1799947</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5632818</v>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>Whau_3d</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Mangawhero at Pakihi Rd Bridge</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>15</v>
+      </c>
+      <c r="D49" t="b">
+        <v>0</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>0.009197598868813</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.928571428571429</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>114</v>
+      </c>
+      <c r="K49" t="n">
+        <v>-1.26587748344371</v>
+      </c>
+      <c r="L49" t="n">
+        <v>-2.08605886410329</v>
+      </c>
+      <c r="M49" t="n">
+        <v>-0.55600614537947</v>
+      </c>
+      <c r="N49" t="n">
+        <v>-1.11041884512606</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>Exceptionally unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q49" t="n">
+        <v>1799947</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5632818</v>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>Whau_3d</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/trend_results/Rivers/MangawheroatPakihiRdBridge_27eff78f83.xlsx
+++ b/trend_results/Rivers/MangawheroatPakihiRdBridge_27eff78f83.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W49"/>
+  <dimension ref="A1:W56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,31 +573,31 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.0016379594133246</v>
+        <v>0.0886734365126596</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.914285714285714</v>
+        <v>0.888888888888889</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>14.5</v>
+        <v>26.5</v>
       </c>
       <c r="K2" t="n">
-        <v>4.85800492610837</v>
+        <v>2.52152910163231</v>
       </c>
       <c r="L2" t="n">
-        <v>1.47872048907752</v>
+        <v>-0.966053255394385</v>
       </c>
       <c r="M2" t="n">
-        <v>11.0347987884035</v>
+        <v>7.59551057151071</v>
       </c>
       <c r="N2" t="n">
-        <v>33.5034822490233</v>
+        <v>9.515204157103071</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -606,7 +606,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -664,31 +664,31 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.989971206704131</v>
+        <v>0.732392412887891</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.509090909090909</v>
+        <v>0.568181818181818</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="K3" t="n">
-        <v>0.165646258503401</v>
+        <v>0.0623967353058165</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0342545394463836</v>
+        <v>-0.0989029170189917</v>
       </c>
       <c r="M3" t="n">
-        <v>0.317780645360613</v>
+        <v>0.289158130080171</v>
       </c>
       <c r="N3" t="n">
-        <v>11.0430839002268</v>
+        <v>3.89979595661353</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -755,31 +755,31 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.5</v>
+        <v>0.326910243161775</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.948275862068966</v>
+        <v>0.947368421052632</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>10.835</v>
+        <v>10.84</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0025980835154021</v>
+        <v>-0.0468269230769233</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.115591666526062</v>
+        <v>-0.125081649663508</v>
       </c>
       <c r="M4" t="n">
-        <v>0.120810751811233</v>
+        <v>0.0401595776163403</v>
       </c>
       <c r="N4" t="n">
-        <v>0.0239786203544269</v>
+        <v>-0.431982685211469</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -788,7 +788,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>As likely as not increasing</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q4" t="n">
@@ -842,11 +842,11 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.03729603343496</v>
+        <v>0.437495281761598</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -858,19 +858,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0.016</v>
+        <v>0.015</v>
       </c>
       <c r="K5" t="n">
-        <v>0.001264935064935</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>-0.0008413437806603</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0023717532467532</v>
+        <v>0.0011993400531571</v>
       </c>
       <c r="N5" t="n">
-        <v>7.90584415584416</v>
+        <v>0</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -879,7 +879,7 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q5" t="n">
@@ -937,31 +937,31 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.93212012009002</v>
+        <v>0.5980480445888861</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.745762711864407</v>
+        <v>0.810344827586207</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="K6" t="n">
-        <v>-17.9926108374384</v>
+        <v>-2.77874049027895</v>
       </c>
       <c r="L6" t="n">
-        <v>-38.7182892662827</v>
+        <v>-20.3961687053055</v>
       </c>
       <c r="M6" t="n">
-        <v>0.778096714673569</v>
+        <v>15.4187482616721</v>
       </c>
       <c r="N6" t="n">
-        <v>-11.9950738916256</v>
+        <v>-2.05832628909552</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q6" t="n">
@@ -1028,19 +1028,19 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.0703284656315523</v>
+        <v>0.124556243133373</v>
       </c>
       <c r="G7" t="n">
-        <v>0.545454545454545</v>
+        <v>0.482142857142857</v>
       </c>
       <c r="H7" t="n">
-        <v>0.472727272727273</v>
+        <v>0.535714285714286</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>0.005</v>
+        <v>0.0107033444474125</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1049,7 +1049,7 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>0.0002579807978955</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q7" t="n">
@@ -1115,17 +1115,17 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.325096313813295</v>
+        <v>0.966486221323408</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0677966101694915</v>
+        <v>0.0847457627118644</v>
       </c>
       <c r="H8" t="n">
-        <v>0.135593220338983</v>
+        <v>0.152542372881356</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
@@ -1134,16 +1134,16 @@
         <v>0.004</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>-0.0002393512450851</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>-0.0005435267857142</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0002906757654439</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>-5.98378112712975</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q8" t="n">
@@ -1210,31 +1210,31 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.528766206292791</v>
+        <v>6.540050049862431e-05</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.949152542372881</v>
+        <v>0.932203389830508</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.231</v>
+        <v>0.232</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.0012542925824175</v>
+        <v>0.0270614397564158</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.0087278094056016</v>
+        <v>0.0142866987990486</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0066163963150852</v>
+        <v>0.0371270604395604</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.5429838019123721</v>
+        <v>11.6644136881103</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1301,31 +1301,31 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.69733784219478</v>
+        <v>0.356015307072816</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.793103448275862</v>
+        <v>0.758620689655172</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>7.715</v>
+        <v>7.7</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0142305194805196</v>
+        <v>-0.009235145385587999</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.0354284127296658</v>
+        <v>-0.0534391647116263</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0622490145840124</v>
+        <v>0.0391664139361847</v>
       </c>
       <c r="N10" t="n">
-        <v>0.184452618023585</v>
+        <v>-0.119936953059585</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1334,7 +1334,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>As likely as not increasing</t>
         </is>
       </c>
       <c r="Q10" t="n">
@@ -1388,31 +1388,31 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.281341927597306</v>
+        <v>5.35556921844951e-06</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.898305084745763</v>
+        <v>0.915254237288136</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0.255</v>
+        <v>0.264</v>
       </c>
       <c r="K11" t="n">
-        <v>0.002277401826115</v>
+        <v>0.0261553011133603</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.008940562173058501</v>
+        <v>0.0160549450549451</v>
       </c>
       <c r="M11" t="n">
-        <v>0.009660702666866101</v>
+        <v>0.0391270386780127</v>
       </c>
       <c r="N11" t="n">
-        <v>0.893098755339238</v>
+        <v>9.907311027787999</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1421,7 +1421,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q11" t="n">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -1475,35 +1475,35 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.679449003035814</v>
+        <v>5.72950538761437e-06</v>
       </c>
       <c r="G12" t="n">
-        <v>0.186440677966102</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.254237288135593</v>
+        <v>0.627118644067797</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>3</v>
+        <v>0.41</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>0.035671974522293</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.498066566486669</v>
+        <v>0.0200686813186813</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>0.0499309166783061</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>8.70048159080317</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q12" t="n">
@@ -1543,7 +1543,7 @@
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1555,14 +1555,14 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>5</v>
       </c>
       <c r="D13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1570,31 +1570,31 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.669583528345139</v>
+        <v>0.04555476287377</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.644067796610169</v>
+        <v>0.576271186440678</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.39</v>
+        <v>0.028</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.0029160305260026</v>
+        <v>0.001503086419753</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.0100343406593407</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0.009868127461593299</v>
+        <v>0.0033512100851325</v>
       </c>
       <c r="N13" t="n">
-        <v>-0.747700134872475</v>
+        <v>5.36816578483245</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q13" t="n">
@@ -1646,14 +1646,14 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C14" t="n">
         <v>5</v>
       </c>
       <c r="D14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1661,31 +1661,31 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.0436858756807204</v>
+        <v>0.471233793707209</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.542372881355932</v>
+        <v>0.898305084745763</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0.028</v>
+        <v>1.66</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0020779077117572</v>
+        <v>0.0050051675298385</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>-0.0603875531761954</v>
       </c>
       <c r="M14" t="n">
-        <v>0.0038547097988453</v>
+        <v>0.08047299810499781</v>
       </c>
       <c r="N14" t="n">
-        <v>7.42109897056168</v>
+        <v>0.301516116255337</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q14" t="n">
@@ -1725,7 +1725,7 @@
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -1737,11 +1737,11 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D15" t="b">
         <v>1</v>
@@ -1752,31 +1752,31 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.640891935233007</v>
+        <v>0.0140885056834757</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.898305084745763</v>
+        <v>0.741176470588235</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1.68</v>
+        <v>12</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.009907720569299699</v>
+        <v>1.04350731137872</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.113790595835185</v>
+        <v>0.250828285518423</v>
       </c>
       <c r="M15" t="n">
-        <v>0.0518992902812145</v>
+        <v>2.15952894813523</v>
       </c>
       <c r="N15" t="n">
-        <v>-0.589745271982126</v>
+        <v>8.695894261489309</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q15" t="n">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>mg/m2</t>
         </is>
       </c>
     </row>
@@ -1828,7 +1828,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Chlorophyll A</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -1843,31 +1843,31 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.324014691133519</v>
+        <v>0.8114753152286029</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="H16" t="n">
-        <v>0.752941176470588</v>
+        <v>0.434343434343434</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>12.5</v>
+        <v>1.5</v>
       </c>
       <c r="K16" t="n">
-        <v>0.267585335984145</v>
+        <v>0.0200027382256298</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.734156864683583</v>
+        <v>-0.0183634178156031</v>
       </c>
       <c r="M16" t="n">
-        <v>1.00343406593407</v>
+        <v>0.084820117013054</v>
       </c>
       <c r="N16" t="n">
-        <v>2.14068268787316</v>
+        <v>1.33351588170865</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>mg/m2</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -1919,7 +1919,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -1934,31 +1934,31 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.901519466313732</v>
+        <v>0.819593132188279</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0092592592592592</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.398148148148148</v>
+        <v>0.853448275862069</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>1.5</v>
+        <v>10.73</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0332878495408257</v>
+        <v>0.0150411805078931</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>-0.0233461183148653</v>
       </c>
       <c r="M17" t="n">
-        <v>0.08634476266046601</v>
+        <v>0.0442359233425283</v>
       </c>
       <c r="N17" t="n">
-        <v>2.21918996938838</v>
+        <v>0.140178755898351</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q17" t="n">
@@ -1998,7 +1998,7 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2010,46 +2010,46 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C18" t="n">
         <v>10</v>
       </c>
       <c r="D18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.468108254107674</v>
+        <v>0.393002414561854</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.837606837606838</v>
+        <v>0.260504201680672</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>10.77</v>
+        <v>0.015</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.0045034504968714</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.043319887604921</v>
+        <v>-0.0002724320239049</v>
       </c>
       <c r="M18" t="n">
-        <v>0.0300835244448508</v>
+        <v>0.0004403254972875</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.0418147678446746</v>
+        <v>0</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>As likely as not increasing</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q18" t="n">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2101,14 +2101,14 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C19" t="n">
         <v>10</v>
       </c>
       <c r="D19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -2116,31 +2116,31 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.0588701245714722</v>
+        <v>0.891116351064177</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.26890756302521</v>
+        <v>0.623931623931624</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0.016</v>
+        <v>150</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0003636137381781</v>
+        <v>-2.53488609443909</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>-8.991812667159911</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0007758910764314</v>
+        <v>0.198812144721883</v>
       </c>
       <c r="N19" t="n">
-        <v>2.27258586361374</v>
+        <v>-1.68992406295939</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q19" t="n">
@@ -2180,7 +2180,7 @@
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -2192,46 +2192,46 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C20" t="n">
         <v>10</v>
       </c>
       <c r="D20" t="b">
+        <v>0</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>0.0005503326479196</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.62280701754386</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.37719298245614</v>
+      </c>
+      <c r="I20" t="n">
         <v>1</v>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>0.779332748114778</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0.627118644067797</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
       <c r="J20" t="n">
-        <v>166.5</v>
+        <v>0.005</v>
       </c>
       <c r="K20" t="n">
-        <v>-1.85160749231199</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>-9.708645810172539</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>2.64325559170554</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>-1.11207657195916</v>
+        <v>0</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q20" t="n">
@@ -2271,7 +2271,7 @@
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2283,7 +2283,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -2298,25 +2298,25 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.0050091870519139</v>
+        <v>0.922075574191027</v>
       </c>
       <c r="G21" t="n">
-        <v>0.654867256637168</v>
+        <v>0.0672268907563025</v>
       </c>
       <c r="H21" t="n">
-        <v>0.345132743362832</v>
+        <v>0.134453781512605</v>
       </c>
       <c r="I21" t="n">
         <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>0.005</v>
+        <v>0.004</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>-0.0001615435647943</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q21" t="n">
@@ -2374,46 +2374,46 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C22" t="n">
         <v>10</v>
       </c>
       <c r="D22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.808315517612582</v>
+        <v>0.0012200440397438</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0588235294117647</v>
+        <v>0.0252100840336134</v>
       </c>
       <c r="H22" t="n">
-        <v>0.126050420168067</v>
+        <v>0.915966386554622</v>
       </c>
       <c r="I22" t="n">
         <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>0.004</v>
+        <v>0.2395</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>0.0064573481116584</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.0001248291182501</v>
+        <v>0.0027506660570792</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>0.0113692320945977</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>2.69617875225823</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2422,7 +2422,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2465,14 +2465,14 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C23" t="n">
         <v>10</v>
       </c>
       <c r="D23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -2480,31 +2480,31 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.0007177093910038001</v>
+        <v>0.951419657991169</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0252100840336134</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.92436974789916</v>
+        <v>0.632478632478632</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0.224</v>
+        <v>7.66</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0064573481116584</v>
+        <v>0.0166612802750657</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0027773537068206</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0.009962250182996599</v>
+        <v>0.0337490283658965</v>
       </c>
       <c r="N23" t="n">
-        <v>2.88274469270467</v>
+        <v>0.21751018635856</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Extremely likely increasing</t>
         </is>
       </c>
       <c r="Q23" t="n">
@@ -2542,11 +2542,7 @@
           <t>Whau_3d</t>
         </is>
       </c>
-      <c r="W23" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2556,14 +2552,14 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C24" t="n">
         <v>10</v>
       </c>
       <c r="D24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -2571,31 +2567,31 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.947185932262095</v>
+        <v>0.0001867988871957</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.620689655172414</v>
+        <v>0.823529411764706</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>7.66</v>
+        <v>0.264</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0169697627861298</v>
+        <v>0.008447959183673401</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>0.0043233729256242</v>
       </c>
       <c r="M24" t="n">
-        <v>0.0360912652736765</v>
+        <v>0.0126454497849287</v>
       </c>
       <c r="N24" t="n">
-        <v>0.221537373187074</v>
+        <v>3.19998453927025</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2604,7 +2600,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Very likely increasing</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q24" t="n">
@@ -2633,7 +2629,11 @@
           <t>Whau_3d</t>
         </is>
       </c>
-      <c r="W24" t="inlineStr"/>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -2658,31 +2658,31 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.0001120659270469</v>
+        <v>0.0904826453850744</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.747899159663866</v>
+        <v>0.5630252100840339</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0.23</v>
+        <v>0.42</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0081261709601873</v>
+        <v>0.0039983579638752</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0044114415893173</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0116808679443951</v>
+        <v>0.008024643777399899</v>
       </c>
       <c r="N25" t="n">
-        <v>3.53311780877711</v>
+        <v>0.951989991398859</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q25" t="n">
@@ -2734,7 +2734,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -2745,35 +2745,35 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.32169391516522</v>
+        <v>0.016439821621883</v>
       </c>
       <c r="G26" t="n">
-        <v>0.126050420168067</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.176470588235294</v>
+        <v>0.336134453781513</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>3</v>
+        <v>0.027</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>0.0006020604395604</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>0.001003434065934</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>2.22985347985348</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q26" t="n">
@@ -2813,7 +2813,7 @@
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2825,7 +2825,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -2836,35 +2836,35 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.5</v>
+        <v>0.180164160930541</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.605042016806723</v>
+        <v>0.773109243697479</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.39</v>
+        <v>1.64</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>0.0119492911668484</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.0049828882841759</v>
+        <v>-0.0116202702584849</v>
       </c>
       <c r="M27" t="n">
-        <v>0.0049495574553576</v>
+        <v>0.0366874943620639</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>0.728615315051731</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q27" t="n">
@@ -2904,7 +2904,7 @@
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -2916,11 +2916,11 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D28" t="b">
         <v>1</v>
@@ -2931,31 +2931,31 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.0364868414637842</v>
+        <v>0.102644602995193</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.336134453781513</v>
+        <v>0.66412213740458</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0.027</v>
+        <v>12.5</v>
       </c>
       <c r="K28" t="n">
-        <v>0.0005010288065843</v>
+        <v>0.325595712983165</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>-0.0747593341398976</v>
       </c>
       <c r="M28" t="n">
-        <v>0.0010006849315068</v>
+        <v>0.96858741828434</v>
       </c>
       <c r="N28" t="n">
-        <v>1.85566224660875</v>
+        <v>2.60476570386532</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q28" t="n">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/m2</t>
         </is>
       </c>
     </row>
@@ -3007,11 +3007,11 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D29" t="b">
         <v>1</v>
@@ -3022,31 +3022,31 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.309745114454865</v>
+        <v>0.999975118832561</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>0.0135135135135135</v>
       </c>
       <c r="H29" t="n">
-        <v>0.798319327731092</v>
+        <v>0.371621621621622</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J29" t="n">
-        <v>1.64</v>
+        <v>1.41</v>
       </c>
       <c r="K29" t="n">
-        <v>0.0056892523364486</v>
+        <v>0.0585317114650738</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.0249865144550725</v>
+        <v>0.0333054711246201</v>
       </c>
       <c r="M29" t="n">
-        <v>0.0306681774524214</v>
+        <v>0.0857237528840388</v>
       </c>
       <c r="N29" t="n">
-        <v>0.346905630271256</v>
+        <v>4.15118521028892</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q29" t="n">
@@ -3086,7 +3086,7 @@
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -3098,7 +3098,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Chlorophyll A</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -3113,31 +3113,31 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.145021077213685</v>
+        <v>0.145929390764422</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.67479674796748</v>
+        <v>0.780346820809249</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>12</v>
+        <v>10.76</v>
       </c>
       <c r="K30" t="n">
-        <v>0.289880952380952</v>
+        <v>-0.0105799178167247</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.140288200433808</v>
+        <v>-0.0343769566692436</v>
       </c>
       <c r="M30" t="n">
-        <v>0.83391789570025</v>
+        <v>0.0059291692077793</v>
       </c>
       <c r="N30" t="n">
-        <v>2.4156746031746</v>
+        <v>-0.0983263737613822</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q30" t="n">
@@ -3177,7 +3177,7 @@
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>mg/m2</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -3189,46 +3189,46 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C31" t="n">
         <v>15</v>
       </c>
       <c r="D31" t="b">
+        <v>0</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>0.0004636844597651</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.0168539325842697</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.168539325842697</v>
+      </c>
+      <c r="I31" t="n">
         <v>1</v>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>0.99991243077153</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0.0125786163522013</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0.377358490566038</v>
-      </c>
-      <c r="I31" t="n">
-        <v>2</v>
-      </c>
       <c r="J31" t="n">
-        <v>1.4</v>
+        <v>0.014</v>
       </c>
       <c r="K31" t="n">
-        <v>0.0497906542738715</v>
+        <v>0.0003537530266343</v>
       </c>
       <c r="L31" t="n">
-        <v>0.0249405190936149</v>
+        <v>0.0001667047010497</v>
       </c>
       <c r="M31" t="n">
-        <v>0.0675139516267205</v>
+        <v>0.0005435267857142</v>
       </c>
       <c r="N31" t="n">
-        <v>3.55647530527653</v>
+        <v>2.52680733310273</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3237,7 +3237,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q31" t="n">
@@ -3268,7 +3268,7 @@
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3280,7 +3280,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -3295,31 +3295,31 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.0021339475894669</v>
+        <v>0.973383814294346</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.78735632183908</v>
+        <v>0.647727272727273</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>10.775</v>
+        <v>161.5</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.0349940621665348</v>
+        <v>-2.82624032771962</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.0539585188034631</v>
+        <v>-6.07191052145831</v>
       </c>
       <c r="M32" t="n">
-        <v>-0.0149081632653058</v>
+        <v>-0.315462775198938</v>
       </c>
       <c r="N32" t="n">
-        <v>-0.324770878575729</v>
+        <v>-1.7499940109719</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely increasing</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q32" t="n">
@@ -3359,7 +3359,7 @@
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -3371,46 +3371,46 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C33" t="n">
         <v>15</v>
       </c>
       <c r="D33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.000139687087734</v>
+        <v>0.629546836434284</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0168539325842697</v>
+        <v>0.56140350877193</v>
       </c>
       <c r="H33" t="n">
-        <v>0.168539325842697</v>
+        <v>0.43859649122807</v>
       </c>
       <c r="I33" t="n">
         <v>1</v>
       </c>
       <c r="J33" t="n">
-        <v>0.014</v>
+        <v>0.005</v>
       </c>
       <c r="K33" t="n">
-        <v>0.0003908507223113</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0.0002015162900837</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0.0005702576112412</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>2.79179087365283</v>
+        <v>0</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q33" t="n">
@@ -3462,46 +3462,46 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C34" t="n">
         <v>15</v>
       </c>
       <c r="D34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.8022965794342</v>
+        <v>0.0078215863568979</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>0.214285714285714</v>
       </c>
       <c r="H34" t="n">
-        <v>0.655367231638418</v>
+        <v>0.09523809523809521</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J34" t="n">
-        <v>160</v>
+        <v>0.003</v>
       </c>
       <c r="K34" t="n">
-        <v>-0.992308622019493</v>
+        <v>5.1372104734128e-05</v>
       </c>
       <c r="L34" t="n">
-        <v>-3.66364722688056</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>1.40265103645447</v>
+        <v>0.0001429549902152</v>
       </c>
       <c r="N34" t="n">
-        <v>-0.620192888762183</v>
+        <v>1.7124034911376</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3510,7 +3510,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q34" t="n">
@@ -3541,7 +3541,7 @@
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3553,7 +3553,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -3564,35 +3564,35 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on two censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.821438451097582</v>
+        <v>0.0129923905841186</v>
       </c>
       <c r="G35" t="n">
-        <v>0.570588235294118</v>
+        <v>0.0178571428571429</v>
       </c>
       <c r="H35" t="n">
-        <v>0.429411764705882</v>
+        <v>0.8988095238095239</v>
       </c>
       <c r="I35" t="n">
         <v>1</v>
       </c>
       <c r="J35" t="n">
-        <v>0.005</v>
+        <v>0.234</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>0.0031573020928116</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>0.0010021842754713</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>0.0055770161900437</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1.34927439863746</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3601,7 +3601,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q35" t="n">
@@ -3644,7 +3644,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -3655,35 +3655,35 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.0007289305949595</v>
+        <v>0.729669273188817</v>
       </c>
       <c r="G36" t="n">
-        <v>0.224358974358974</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.0961538461538462</v>
+        <v>0.563218390804598</v>
       </c>
       <c r="I36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.004</v>
+        <v>7.66</v>
       </c>
       <c r="K36" t="n">
-        <v>0.0001285488104555</v>
+        <v>0.0041302299283828</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>-0.0064636380908275</v>
       </c>
       <c r="M36" t="n">
-        <v>0.0001953329255555</v>
+        <v>0.0146999363901217</v>
       </c>
       <c r="N36" t="n">
-        <v>3.21372026138912</v>
+        <v>0.0539194507621785</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3692,7 +3692,7 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q36" t="n">
@@ -3721,11 +3721,7 @@
           <t>Whau_3d</t>
         </is>
       </c>
-      <c r="W36" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3735,7 +3731,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -3750,31 +3746,31 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.0858170014996277</v>
+        <v>0.0147074429134471</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0188679245283019</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.893081761006289</v>
+        <v>0.837078651685393</v>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0.231</v>
+        <v>0.2544</v>
       </c>
       <c r="K37" t="n">
-        <v>0.001885858627665</v>
+        <v>0.003003897299509</v>
       </c>
       <c r="L37" t="n">
-        <v>-0.0005486087354471</v>
+        <v>0.0008127095270621</v>
       </c>
       <c r="M37" t="n">
-        <v>0.0040670327601891</v>
+        <v>0.0050340204647004</v>
       </c>
       <c r="N37" t="n">
-        <v>0.816389016305205</v>
+        <v>1.18077724037304</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3783,7 +3779,7 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q37" t="n">
@@ -3814,7 +3810,7 @@
       </c>
       <c r="W37" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -3826,46 +3822,46 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C38" t="n">
         <v>15</v>
       </c>
       <c r="D38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.976368092436088</v>
+        <v>0.374378446340352</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.578034682080925</v>
+        <v>0.539325842696629</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>7.64</v>
+        <v>0.42</v>
       </c>
       <c r="K38" t="n">
-        <v>0.0143804190793447</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0.0024699995363574</v>
+        <v>-0.0020032443492589</v>
       </c>
       <c r="M38" t="n">
-        <v>0.0267275754574422</v>
+        <v>0.0033393580530434</v>
       </c>
       <c r="N38" t="n">
-        <v>0.188225380619694</v>
+        <v>0</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3874,7 +3870,7 @@
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Extremely likely increasing</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q38" t="n">
@@ -3903,7 +3899,11 @@
           <t>Whau_3d</t>
         </is>
       </c>
-      <c r="W38" t="inlineStr"/>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3913,7 +3913,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -3928,31 +3928,31 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.138014095903671</v>
+        <v>0.251033556644744</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.769662921348315</v>
+        <v>0.286516853932584</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.247</v>
+        <v>0.028</v>
       </c>
       <c r="K39" t="n">
-        <v>0.0015080776811782</v>
+        <v>7.99857853351004e-05</v>
       </c>
       <c r="L39" t="n">
-        <v>-0.0006222556621585</v>
+        <v>-0.0001577993593149</v>
       </c>
       <c r="M39" t="n">
-        <v>0.0034729371334646</v>
+        <v>0.0003426164456889</v>
       </c>
       <c r="N39" t="n">
-        <v>0.610557765659213</v>
+        <v>0.28566351905393</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -4015,35 +4015,35 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.54058901305631</v>
+        <v>0.652431992660112</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.533707865168539</v>
+        <v>0.735955056179775</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0.3985</v>
+        <v>1.615</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>-0.0062041614199265</v>
       </c>
       <c r="L40" t="n">
-        <v>-0.0027319408761516</v>
+        <v>-0.0233631966069918</v>
       </c>
       <c r="M40" t="n">
-        <v>0.002507701244395</v>
+        <v>0.0131971562311054</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>-0.384158601853036</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4083,7 +4083,7 @@
       </c>
       <c r="W40" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -4095,46 +4095,46 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D41" t="b">
         <v>1</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.299758454470317</v>
+        <v>0.979654869675415</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>0.0108695652173913</v>
       </c>
       <c r="H41" t="n">
-        <v>0.286516853932584</v>
+        <v>0.41304347826087</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J41" t="n">
-        <v>0.028</v>
+        <v>1.4215</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>0.022159952681867</v>
       </c>
       <c r="L41" t="n">
-        <v>-0.0001885231521126</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0.0003305429864253</v>
+        <v>0.0398689567692285</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>1.5589133086083</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4143,7 +4143,7 @@
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q41" t="n">
@@ -4174,7 +4174,7 @@
       </c>
       <c r="W41" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -4186,46 +4186,46 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D42" t="b">
+        <v>0</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>0.153716702328933</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.0233644859813084</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.158878504672897</v>
+      </c>
+      <c r="I42" t="n">
         <v>1</v>
       </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F42" t="n">
-        <v>0.442303760712988</v>
-      </c>
-      <c r="G42" t="n">
-        <v>0</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0.758426966292135</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
       <c r="J42" t="n">
-        <v>1.57</v>
+        <v>0.014</v>
       </c>
       <c r="K42" t="n">
-        <v>0.0020149383777565</v>
+        <v>6.673670747304961e-05</v>
       </c>
       <c r="L42" t="n">
-        <v>-0.0149676225973217</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0.0196692054529826</v>
+        <v>0.0002236548552542</v>
       </c>
       <c r="N42" t="n">
-        <v>0.128340024060924</v>
+        <v>0.47669076766464</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4234,7 +4234,7 @@
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q42" t="n">
@@ -4265,7 +4265,7 @@
       </c>
       <c r="W42" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -4277,14 +4277,14 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -4292,31 +4292,31 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.231216363225238</v>
+        <v>0.893316807717732</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>0.009478672985781899</v>
       </c>
       <c r="H43" t="n">
+        <v>0.630331753554502</v>
+      </c>
+      <c r="I43" t="n">
         <v>1</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
       <c r="J43" t="n">
-        <v>0.453</v>
+        <v>150</v>
       </c>
       <c r="K43" t="n">
-        <v>-0.0265151063301249</v>
+        <v>-1.33072282895561</v>
       </c>
       <c r="L43" t="n">
-        <v>-0.114981391243833</v>
+        <v>-3.51630725037014</v>
       </c>
       <c r="M43" t="n">
-        <v>0.037183361723812</v>
+        <v>0.458235962576099</v>
       </c>
       <c r="N43" t="n">
-        <v>-5.85322435543596</v>
+        <v>-0.887148552637072</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4325,7 +4325,7 @@
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q43" t="n">
@@ -4354,7 +4354,11 @@
           <t>Whau_3d</t>
         </is>
       </c>
-      <c r="W43" t="inlineStr"/>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -4364,46 +4368,46 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.5</v>
+        <v>0.165693548123807</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>0.572815533980582</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0.412621359223301</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J44" t="n">
-        <v>111.72</v>
+        <v>0.005</v>
       </c>
       <c r="K44" t="n">
-        <v>-0.58309600669304</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>-9.1143939930359</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>1.93342373226569</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>-0.521926250172789</v>
+        <v>0</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4412,7 +4416,7 @@
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q44" t="n">
@@ -4441,7 +4445,11 @@
           <t>Whau_3d</t>
         </is>
       </c>
-      <c r="W44" t="inlineStr"/>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -4451,14 +4459,14 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -4466,31 +4474,31 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0.40324797025367</v>
+        <v>0.0368097136443976</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>0.0205128205128205</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0.825641025641026</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J45" t="n">
-        <v>5.18</v>
+        <v>0.2392</v>
       </c>
       <c r="K45" t="n">
-        <v>-0.110803985323308</v>
+        <v>0.002125</v>
       </c>
       <c r="L45" t="n">
-        <v>-1.27012850787846</v>
+        <v>9.048396155191939e-05</v>
       </c>
       <c r="M45" t="n">
-        <v>0.456402108297304</v>
+        <v>0.0038186227673272</v>
       </c>
       <c r="N45" t="n">
-        <v>-2.13907307573953</v>
+        <v>0.888377926421404</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4499,7 +4507,7 @@
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q45" t="n">
@@ -4528,7 +4536,11 @@
           <t>Whau_3d</t>
         </is>
       </c>
-      <c r="W45" t="inlineStr"/>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -4538,14 +4550,14 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -4553,31 +4565,31 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0.0006410918709029</v>
+        <v>0.0399247790103612</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>0.0046728971962616</v>
       </c>
       <c r="H46" t="n">
+        <v>0.813084112149533</v>
+      </c>
+      <c r="I46" t="n">
         <v>1</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
       <c r="J46" t="n">
-        <v>0.5620000000000001</v>
+        <v>0.2578</v>
       </c>
       <c r="K46" t="n">
-        <v>-0.0256486666666667</v>
+        <v>0.0019405452638115</v>
       </c>
       <c r="L46" t="n">
-        <v>-0.0409606880799583</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>-0.018535672868903</v>
+        <v>0.0036267332089365</v>
       </c>
       <c r="N46" t="n">
-        <v>-4.5638196915777</v>
+        <v>0.752732840888879</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -4586,7 +4598,7 @@
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q46" t="n">
@@ -4615,7 +4627,11 @@
           <t>Whau_3d</t>
         </is>
       </c>
-      <c r="W46" t="inlineStr"/>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -4625,14 +4641,14 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -4640,31 +4656,31 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0.105248850027669</v>
+        <v>0.301234856886931</v>
       </c>
       <c r="G47" t="n">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0.714953271028037</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>111.86</v>
+        <v>1.54</v>
       </c>
       <c r="K47" t="n">
-        <v>-1.26587748344371</v>
+        <v>0.0049733349102823</v>
       </c>
       <c r="L47" t="n">
-        <v>-2.01938433626718</v>
+        <v>-0.0100008438881034</v>
       </c>
       <c r="M47" t="n">
-        <v>0.162014908927453</v>
+        <v>0.0167940004018799</v>
       </c>
       <c r="N47" t="n">
-        <v>-1.13166233098848</v>
+        <v>0.322943825343007</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -4702,7 +4718,11 @@
           <t>Whau_3d</t>
         </is>
       </c>
-      <c r="W47" t="inlineStr"/>
+      <c r="W47" t="inlineStr">
+        <is>
+          <t>NTU/FNU</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -4712,11 +4732,11 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D48" t="b">
         <v>0</v>
@@ -4727,7 +4747,7 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0.185546684761349</v>
+        <v>0.40324797025367</v>
       </c>
       <c r="G48" t="n">
         <v>0</v>
@@ -4739,19 +4759,19 @@
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>5.1505</v>
+        <v>0.44</v>
       </c>
       <c r="K48" t="n">
-        <v>-0.257951038575668</v>
+        <v>-0.005313925680424</v>
       </c>
       <c r="L48" t="n">
-        <v>-0.371504286287171</v>
+        <v>-0.08978632183126289</v>
       </c>
       <c r="M48" t="n">
-        <v>0.0394667783901045</v>
+        <v>0.037183361723812</v>
       </c>
       <c r="N48" t="n">
-        <v>-5.00827179061582</v>
+        <v>-1.20771038191456</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4760,7 +4780,7 @@
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q48" t="n">
@@ -4803,7 +4823,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D49" t="b">
         <v>0</v>
@@ -4814,31 +4834,31 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0.009197598868813</v>
+        <v>0.5</v>
       </c>
       <c r="G49" t="n">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.928571428571429</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>114</v>
+        <v>109.23</v>
       </c>
       <c r="K49" t="n">
-        <v>-1.26587748344371</v>
+        <v>0.192630017886658</v>
       </c>
       <c r="L49" t="n">
-        <v>-2.08605886410329</v>
+        <v>-9.1143939930359</v>
       </c>
       <c r="M49" t="n">
-        <v>-0.55600614537947</v>
+        <v>2.47473468294839</v>
       </c>
       <c r="N49" t="n">
-        <v>-1.11041884512606</v>
+        <v>0.176352666746002</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4847,7 +4867,7 @@
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q49" t="n">
@@ -4877,6 +4897,615 @@
         </is>
       </c>
       <c r="W49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Mangawhero at Pakihi Rd Bridge</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>5</v>
+      </c>
+      <c r="D50" t="b">
+        <v>0</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.0621085038526088</v>
+      </c>
+      <c r="L50" t="n">
+        <v>-0.990649944844356</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.480196708780311</v>
+      </c>
+      <c r="N50" t="n">
+        <v>1.29934108478261</v>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q50" t="n">
+        <v>1799947</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5632818</v>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>Whau_3d</t>
+        </is>
+      </c>
+      <c r="W50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Mangawhero at Pakihi Rd Bridge</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>10</v>
+      </c>
+      <c r="D51" t="b">
+        <v>0</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>0.001178763797898</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.534</v>
+      </c>
+      <c r="K51" t="n">
+        <v>-0.0234106824925816</v>
+      </c>
+      <c r="L51" t="n">
+        <v>-0.0396731577976372</v>
+      </c>
+      <c r="M51" t="n">
+        <v>-0.0154199340570847</v>
+      </c>
+      <c r="N51" t="n">
+        <v>-4.3840229386857</v>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>Exceptionally unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q51" t="n">
+        <v>1799947</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5632818</v>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>Whau_3d</t>
+        </is>
+      </c>
+      <c r="W51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Mangawhero at Pakihi Rd Bridge</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>10</v>
+      </c>
+      <c r="D52" t="b">
+        <v>0</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>0.185546684761349</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>110.86</v>
+      </c>
+      <c r="K52" t="n">
+        <v>-0.832012954239569</v>
+      </c>
+      <c r="L52" t="n">
+        <v>-1.96827952617287</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.505271754036565</v>
+      </c>
+      <c r="N52" t="n">
+        <v>-0.750507806458207</v>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q52" t="n">
+        <v>1799947</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5632818</v>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>Whau_3d</t>
+        </is>
+      </c>
+      <c r="W52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Mangawhero at Pakihi Rd Bridge</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>10</v>
+      </c>
+      <c r="D53" t="b">
+        <v>0</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>0.237137175383665</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>5.0305</v>
+      </c>
+      <c r="K53" t="n">
+        <v>-0.094139131897712</v>
+      </c>
+      <c r="L53" t="n">
+        <v>-0.29765809644159</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.0782706038821514</v>
+      </c>
+      <c r="N53" t="n">
+        <v>-1.87136729743986</v>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q53" t="n">
+        <v>1799947</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5632818</v>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>Whau_3d</t>
+        </is>
+      </c>
+      <c r="W53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Mangawhero at Pakihi Rd Bridge</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>15</v>
+      </c>
+      <c r="D54" t="b">
+        <v>0</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>0.014269531785181</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.534</v>
+      </c>
+      <c r="K54" t="n">
+        <v>-0.0140637555803571</v>
+      </c>
+      <c r="L54" t="n">
+        <v>-0.024140093551697</v>
+      </c>
+      <c r="M54" t="n">
+        <v>-0.0065579992401985</v>
+      </c>
+      <c r="N54" t="n">
+        <v>-2.63366209369984</v>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>Extremely unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q54" t="n">
+        <v>1799947</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5632818</v>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>Whau_3d</t>
+        </is>
+      </c>
+      <c r="W54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Mangawhero at Pakihi Rd Bridge</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>15</v>
+      </c>
+      <c r="D55" t="b">
+        <v>0</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>0.005753032131482</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.933333333333333</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>112</v>
+      </c>
+      <c r="K55" t="n">
+        <v>-1.14910112359551</v>
+      </c>
+      <c r="L55" t="n">
+        <v>-1.83697226798072</v>
+      </c>
+      <c r="M55" t="n">
+        <v>-0.5016877045932731</v>
+      </c>
+      <c r="N55" t="n">
+        <v>-1.02598314606742</v>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>Exceptionally unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q55" t="n">
+        <v>1799947</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5632818</v>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>Whau_3d</t>
+        </is>
+      </c>
+      <c r="W55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Mangawhero at Pakihi Rd Bridge</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>15</v>
+      </c>
+      <c r="D56" t="b">
+        <v>0</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>0.094443738769769</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="n">
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>5.1505</v>
+      </c>
+      <c r="K56" t="n">
+        <v>-0.12175</v>
+      </c>
+      <c r="L56" t="n">
+        <v>-0.269754116053482</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.0115460962960189</v>
+      </c>
+      <c r="N56" t="n">
+        <v>-2.36384817008057</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>Very unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q56" t="n">
+        <v>1799947</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5632818</v>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T56" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>Whau_3d</t>
+        </is>
+      </c>
+      <c r="W56" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/trend_results/Rivers/MangawheroatPakihiRdBridge_27eff78f83.xlsx
+++ b/trend_results/Rivers/MangawheroatPakihiRdBridge_27eff78f83.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="70">
   <si>
     <t>site name</t>
   </si>
@@ -151,43 +151,49 @@
     <t>RepSite</t>
   </si>
   <si>
+    <t>Extremely likely improving</t>
+  </si>
+  <si>
+    <t>As likely as not improving</t>
+  </si>
+  <si>
+    <t>Unlikely increasing</t>
+  </si>
+  <si>
+    <t>Extremely unlikely improving</t>
+  </si>
+  <si>
+    <t>Likely improving</t>
+  </si>
+  <si>
+    <t>Unlikely improving</t>
+  </si>
+  <si>
+    <t>Virtually certain improving</t>
+  </si>
+  <si>
+    <t>Extremely unlikely increasing</t>
+  </si>
+  <si>
     <t>Very unlikely improving</t>
   </si>
   <si>
-    <t>Likely improving</t>
-  </si>
-  <si>
-    <t>Unlikely increasing</t>
-  </si>
-  <si>
-    <t>As likely as not improving</t>
-  </si>
-  <si>
-    <t>Unlikely improving</t>
-  </si>
-  <si>
-    <t>Extremely likely improving</t>
+    <t>Very likely improving</t>
+  </si>
+  <si>
+    <t>As likely as not increasing</t>
   </si>
   <si>
     <t>Exceptionally unlikely improving</t>
   </si>
   <si>
-    <t>As likely as not increasing</t>
-  </si>
-  <si>
-    <t>Extremely unlikely improving</t>
-  </si>
-  <si>
     <t>Likely increasing</t>
   </si>
   <si>
-    <t>Very likely improving</t>
-  </si>
-  <si>
-    <t>Extremely likely increasing</t>
-  </si>
-  <si>
-    <t>Virtually certain improving</t>
+    <t>Exceptionally unlikely increasing</t>
+  </si>
+  <si>
+    <t>Very likely increasing</t>
   </si>
   <si>
     <t>Ruapehu District</t>
@@ -575,7 +581,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W56"/>
+  <dimension ref="A1:W60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -669,31 +675,31 @@
         <v>40</v>
       </c>
       <c r="F2">
-        <v>0.0886734365126596</v>
+        <v>0.983934893332119</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.888888888888889</v>
+        <v>0.870967741935484</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>26.5</v>
+        <v>30.5</v>
       </c>
       <c r="K2">
-        <v>2.52152910163231</v>
+        <v>-8.0831544178365</v>
       </c>
       <c r="L2">
-        <v>-0.966053255394385</v>
+        <v>-12.3311374932228</v>
       </c>
       <c r="M2">
-        <v>7.59551057151071</v>
+        <v>-2.20830555582637</v>
       </c>
       <c r="N2">
-        <v>9.515204157103071</v>
+        <v>-26.5021456322508</v>
       </c>
       <c r="O2" t="s">
         <v>44</v>
@@ -708,19 +714,19 @@
         <v>5632818</v>
       </c>
       <c r="S2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="W2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -737,34 +743,34 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F3">
-        <v>0.732392412887891</v>
+        <v>0.565063944866887</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.568181818181818</v>
+        <v>0.722222222222222</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="K3">
-        <v>0.0623967353058165</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>-0.0989029170189917</v>
+        <v>-0.208709865258738</v>
       </c>
       <c r="M3">
-        <v>0.289158130080171</v>
+        <v>0.245531815164229</v>
       </c>
       <c r="N3">
-        <v>3.89979595661353</v>
+        <v>0</v>
       </c>
       <c r="O3" t="s">
         <v>44</v>
@@ -779,19 +785,19 @@
         <v>5632818</v>
       </c>
       <c r="S3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="W3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -811,31 +817,31 @@
         <v>40</v>
       </c>
       <c r="F4">
-        <v>0.326910243161775</v>
+        <v>0.177983559866866</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.947368421052632</v>
+        <v>0.946428571428571</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.84</v>
+        <v>10.785</v>
       </c>
       <c r="K4">
-        <v>-0.0468269230769233</v>
+        <v>-0.0474350649350648</v>
       </c>
       <c r="L4">
-        <v>-0.125081649663508</v>
+        <v>-0.130446428571428</v>
       </c>
       <c r="M4">
-        <v>0.0401595776163403</v>
+        <v>0.0200686813186815</v>
       </c>
       <c r="N4">
-        <v>-0.431982685211469</v>
+        <v>-0.439824431479507</v>
       </c>
       <c r="O4" t="s">
         <v>44</v>
@@ -850,19 +856,19 @@
         <v>5632818</v>
       </c>
       <c r="S4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="W4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -879,34 +885,34 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F5">
-        <v>0.437495281761598</v>
+        <v>0.0241341464148714</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.457627118644068</v>
+        <v>0.423728813559322</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.015</v>
+        <v>0.014</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.0010298402255639</v>
       </c>
       <c r="L5">
-        <v>-0.0008413437806603</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.0011993400531571</v>
+        <v>0.0020761028757458</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>7.35600161117078</v>
       </c>
       <c r="O5" t="s">
         <v>44</v>
@@ -921,19 +927,19 @@
         <v>5632818</v>
       </c>
       <c r="S5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="W5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -953,37 +959,37 @@
         <v>40</v>
       </c>
       <c r="F6">
-        <v>0.5980480445888861</v>
+        <v>0.78572133403052</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.810344827586207</v>
+        <v>0.910714285714286</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>135</v>
+        <v>122.6</v>
       </c>
       <c r="K6">
-        <v>-2.77874049027895</v>
+        <v>-8.425325332562171</v>
       </c>
       <c r="L6">
-        <v>-20.3961687053055</v>
+        <v>-27.3316326530612</v>
       </c>
       <c r="M6">
-        <v>15.4187482616721</v>
+        <v>11.6440431843666</v>
       </c>
       <c r="N6">
-        <v>-2.05832628909552</v>
+        <v>-6.87220663341123</v>
       </c>
       <c r="O6" t="s">
         <v>44</v>
       </c>
       <c r="P6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q6">
         <v>1799947</v>
@@ -992,19 +998,19 @@
         <v>5632818</v>
       </c>
       <c r="S6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="W6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -1024,19 +1030,19 @@
         <v>42</v>
       </c>
       <c r="F7">
-        <v>0.124556243133373</v>
+        <v>0.174366641500191</v>
       </c>
       <c r="G7">
-        <v>0.482142857142857</v>
+        <v>0.462962962962963</v>
       </c>
       <c r="H7">
-        <v>0.535714285714286</v>
+        <v>0.555555555555556</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>0.0107033444474125</v>
+        <v>0.0110572505824935</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1045,7 +1051,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.0002579807978955</v>
+        <v>0.0004375078816073</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -1054,7 +1060,7 @@
         <v>44</v>
       </c>
       <c r="P7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q7">
         <v>1799947</v>
@@ -1063,19 +1069,19 @@
         <v>5632818</v>
       </c>
       <c r="S7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="W7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1095,10 +1101,10 @@
         <v>40</v>
       </c>
       <c r="F8">
-        <v>0.966486221323408</v>
+        <v>0.996993518683131</v>
       </c>
       <c r="G8">
-        <v>0.0847457627118644</v>
+        <v>0.11864406779661</v>
       </c>
       <c r="H8">
         <v>0.152542372881356</v>
@@ -1107,25 +1113,25 @@
         <v>1</v>
       </c>
       <c r="J8">
-        <v>0.004</v>
+        <v>0.003</v>
       </c>
       <c r="K8">
-        <v>-0.0002393512450851</v>
+        <v>-0.0003753854059609</v>
       </c>
       <c r="L8">
-        <v>-0.0005435267857142</v>
+        <v>-0.0006336029846511</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>-5.98378112712975</v>
+        <v>-12.5128468653649</v>
       </c>
       <c r="O8" t="s">
         <v>44</v>
       </c>
       <c r="P8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q8">
         <v>1799947</v>
@@ -1134,19 +1140,19 @@
         <v>5632818</v>
       </c>
       <c r="S8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="W8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1166,37 +1172,37 @@
         <v>40</v>
       </c>
       <c r="F9">
-        <v>6.540050049862431E-05</v>
+        <v>0.174072312476531</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.0169491525423729</v>
       </c>
       <c r="H9">
-        <v>0.932203389830508</v>
+        <v>0.88135593220339</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9">
-        <v>0.232</v>
+        <v>0.237</v>
       </c>
       <c r="K9">
-        <v>0.0270614397564158</v>
+        <v>0.0050039672498554</v>
       </c>
       <c r="L9">
-        <v>0.0142866987990486</v>
+        <v>-0.0051320671544493</v>
       </c>
       <c r="M9">
-        <v>0.0371270604395604</v>
+        <v>0.0220236442312895</v>
       </c>
       <c r="N9">
-        <v>11.6644136881103</v>
+        <v>2.11137858643688</v>
       </c>
       <c r="O9" t="s">
         <v>44</v>
       </c>
       <c r="P9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q9">
         <v>1799947</v>
@@ -1205,19 +1211,19 @@
         <v>5632818</v>
       </c>
       <c r="S9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="W9" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1237,13 +1243,13 @@
         <v>40</v>
       </c>
       <c r="F10">
-        <v>0.356015307072816</v>
+        <v>0.042886789685847</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.758620689655172</v>
+        <v>0.803571428571429</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -1252,16 +1258,16 @@
         <v>7.7</v>
       </c>
       <c r="K10">
-        <v>-0.009235145385587999</v>
+        <v>-0.0474350649350647</v>
       </c>
       <c r="L10">
-        <v>-0.0534391647116263</v>
+        <v>-0.0906240726970092</v>
       </c>
       <c r="M10">
-        <v>0.0391664139361847</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>-0.119936953059585</v>
+        <v>-0.61603980435149</v>
       </c>
       <c r="O10" t="s">
         <v>44</v>
@@ -1276,16 +1282,16 @@
         <v>5632818</v>
       </c>
       <c r="S10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V10" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1305,37 +1311,37 @@
         <v>40</v>
       </c>
       <c r="F11">
-        <v>5.35556921844951E-06</v>
+        <v>0.0851552355932207</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.915254237288136</v>
+        <v>0.932203389830508</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.264</v>
+        <v>0.274</v>
       </c>
       <c r="K11">
-        <v>0.0261553011133603</v>
+        <v>0.008319734876773699</v>
       </c>
       <c r="L11">
-        <v>0.0160549450549451</v>
+        <v>-0.0040270796167607</v>
       </c>
       <c r="M11">
-        <v>0.0391270386780127</v>
+        <v>0.0244423528203691</v>
       </c>
       <c r="N11">
-        <v>9.907311027787999</v>
+        <v>3.0363995900634</v>
       </c>
       <c r="O11" t="s">
         <v>44</v>
       </c>
       <c r="P11" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="Q11">
         <v>1799947</v>
@@ -1344,19 +1350,19 @@
         <v>5632818</v>
       </c>
       <c r="S11" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T11" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="W11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1376,37 +1382,37 @@
         <v>40</v>
       </c>
       <c r="F12">
-        <v>5.72950538761437E-06</v>
+        <v>0.08291660352683949</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.627118644067797</v>
+        <v>0.593220338983051</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.41</v>
+        <v>0.42</v>
       </c>
       <c r="K12">
-        <v>0.035671974522293</v>
+        <v>0.0173347605720992</v>
       </c>
       <c r="L12">
-        <v>0.0200686813186813</v>
+        <v>-0.0006937450495278</v>
       </c>
       <c r="M12">
-        <v>0.0499309166783061</v>
+        <v>0.0330999680605868</v>
       </c>
       <c r="N12">
-        <v>8.70048159080317</v>
+        <v>4.12732394573791</v>
       </c>
       <c r="O12" t="s">
         <v>44</v>
       </c>
       <c r="P12" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="Q12">
         <v>1799947</v>
@@ -1415,19 +1421,19 @@
         <v>5632818</v>
       </c>
       <c r="S12" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T12" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U12" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V12" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="W12" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1444,40 +1450,40 @@
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F13">
-        <v>0.04555476287377</v>
+        <v>0.381499952959998</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.576271186440678</v>
+        <v>0.508474576271186</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.028</v>
+        <v>0.027</v>
       </c>
       <c r="K13">
-        <v>0.001503086419753</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>-0.0012019764881364</v>
       </c>
       <c r="M13">
-        <v>0.0033512100851325</v>
+        <v>0.0014976630670724</v>
       </c>
       <c r="N13">
-        <v>5.36816578483245</v>
+        <v>0</v>
       </c>
       <c r="O13" t="s">
         <v>44</v>
       </c>
       <c r="P13" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="Q13">
         <v>1799947</v>
@@ -1486,19 +1492,19 @@
         <v>5632818</v>
       </c>
       <c r="S13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T13" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U13" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V13" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="W13" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1512,13 +1518,13 @@
         <v>5</v>
       </c>
       <c r="D14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="s">
         <v>40</v>
       </c>
       <c r="F14">
-        <v>0.471233793707209</v>
+        <v>0.9425187611961729</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1530,25 +1536,25 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>1.66</v>
+        <v>1.5</v>
       </c>
       <c r="K14">
-        <v>0.0050051675298385</v>
+        <v>-0.0993877551020408</v>
       </c>
       <c r="L14">
-        <v>-0.0603875531761954</v>
+        <v>-0.215737096285743</v>
       </c>
       <c r="M14">
-        <v>0.08047299810499781</v>
+        <v>0.0037668100045279</v>
       </c>
       <c r="N14">
-        <v>0.301516116255337</v>
+        <v>-6.62585034013605</v>
       </c>
       <c r="O14" t="s">
         <v>44</v>
       </c>
       <c r="P14" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="Q14">
         <v>1799947</v>
@@ -1557,19 +1563,19 @@
         <v>5632818</v>
       </c>
       <c r="S14" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U14" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V14" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="W14" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1589,37 +1595,37 @@
         <v>40</v>
       </c>
       <c r="F15">
-        <v>0.0140885056834757</v>
+        <v>0.0167445258256682</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.741176470588235</v>
+        <v>0.734177215189873</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>12</v>
+        <v>9.5</v>
       </c>
       <c r="K15">
-        <v>1.04350731137872</v>
+        <v>1.23319962280384</v>
       </c>
       <c r="L15">
-        <v>0.250828285518423</v>
+        <v>0.265696779374141</v>
       </c>
       <c r="M15">
-        <v>2.15952894813523</v>
+        <v>2.43015602882178</v>
       </c>
       <c r="N15">
-        <v>8.695894261489309</v>
+        <v>12.9810486610931</v>
       </c>
       <c r="O15" t="s">
         <v>44</v>
       </c>
       <c r="P15" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="Q15">
         <v>1799947</v>
@@ -1628,19 +1634,19 @@
         <v>5632818</v>
       </c>
       <c r="S15" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T15" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U15" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V15" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="W15" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1660,31 +1666,31 @@
         <v>40</v>
       </c>
       <c r="F16">
-        <v>0.8114753152286029</v>
+        <v>0.629395245794042</v>
       </c>
       <c r="G16">
-        <v>0.0101010101010101</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>0.434343434343434</v>
+        <v>0.468085106382979</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>1.5</v>
       </c>
       <c r="K16">
-        <v>0.0200027382256298</v>
+        <v>0.0035738747553815</v>
       </c>
       <c r="L16">
-        <v>-0.0183634178156031</v>
+        <v>-0.0421176451535523</v>
       </c>
       <c r="M16">
-        <v>0.084820117013054</v>
+        <v>0.0674793762942527</v>
       </c>
       <c r="N16">
-        <v>1.33351588170865</v>
+        <v>0.23825831702544</v>
       </c>
       <c r="O16" t="s">
         <v>44</v>
@@ -1699,19 +1705,19 @@
         <v>5632818</v>
       </c>
       <c r="S16" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T16" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U16" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V16" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="W16" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1728,40 +1734,40 @@
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F17">
-        <v>0.819593132188279</v>
+        <v>0.478456527460851</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.853448275862069</v>
+        <v>0.836206896551724</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.73</v>
+        <v>10.785</v>
       </c>
       <c r="K17">
-        <v>0.0150411805078931</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>-0.0233461183148653</v>
+        <v>-0.0349466278160349</v>
       </c>
       <c r="M17">
-        <v>0.0442359233425283</v>
+        <v>0.0200686813186815</v>
       </c>
       <c r="N17">
-        <v>0.140178755898351</v>
+        <v>0</v>
       </c>
       <c r="O17" t="s">
         <v>44</v>
       </c>
       <c r="P17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q17">
         <v>1799947</v>
@@ -1770,19 +1776,19 @@
         <v>5632818</v>
       </c>
       <c r="S17" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T17" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U17" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V17" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="W17" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1802,13 +1808,13 @@
         <v>41</v>
       </c>
       <c r="F18">
-        <v>0.393002414561854</v>
+        <v>0.262685416004364</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.260504201680672</v>
+        <v>0.252100840336134</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1820,10 +1826,10 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>-0.0002724320239049</v>
+        <v>-0.000181806869089</v>
       </c>
       <c r="M18">
-        <v>0.0004403254972875</v>
+        <v>0.0004613166884829</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1832,7 +1838,7 @@
         <v>44</v>
       </c>
       <c r="P18" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q18">
         <v>1799947</v>
@@ -1841,19 +1847,19 @@
         <v>5632818</v>
       </c>
       <c r="S18" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T18" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U18" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V18" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="W18" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1873,13 +1879,13 @@
         <v>40</v>
       </c>
       <c r="F19">
-        <v>0.891116351064177</v>
+        <v>0.9662613807185</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.623931623931624</v>
+        <v>0.669565217391304</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1888,22 +1894,22 @@
         <v>150</v>
       </c>
       <c r="K19">
-        <v>-2.53488609443909</v>
+        <v>-6.40465104090461</v>
       </c>
       <c r="L19">
-        <v>-8.991812667159911</v>
+        <v>-11.0159415606524</v>
       </c>
       <c r="M19">
-        <v>0.198812144721883</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>-1.68992406295939</v>
+        <v>-4.26976736060308</v>
       </c>
       <c r="O19" t="s">
         <v>44</v>
       </c>
       <c r="P19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q19">
         <v>1799947</v>
@@ -1912,19 +1918,19 @@
         <v>5632818</v>
       </c>
       <c r="S19" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T19" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U19" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V19" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="W19" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1944,13 +1950,13 @@
         <v>43</v>
       </c>
       <c r="F20">
-        <v>0.0005503326479196</v>
+        <v>0.0005517819912066</v>
       </c>
       <c r="G20">
-        <v>0.62280701754386</v>
+        <v>0.598214285714286</v>
       </c>
       <c r="H20">
-        <v>0.37719298245614</v>
+        <v>0.401785714285714</v>
       </c>
       <c r="I20">
         <v>1</v>
@@ -1974,7 +1980,7 @@
         <v>44</v>
       </c>
       <c r="P20" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="Q20">
         <v>1799947</v>
@@ -1983,19 +1989,19 @@
         <v>5632818</v>
       </c>
       <c r="S20" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T20" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U20" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V20" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="W20" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -2012,16 +2018,16 @@
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F21">
-        <v>0.922075574191027</v>
+        <v>0.9943166696028291</v>
       </c>
       <c r="G21">
-        <v>0.0672268907563025</v>
+        <v>0.092436974789916</v>
       </c>
       <c r="H21">
-        <v>0.134453781512605</v>
+        <v>0.126050420168067</v>
       </c>
       <c r="I21">
         <v>1</v>
@@ -2030,22 +2036,22 @@
         <v>0.004</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>-0.0001263403666551</v>
       </c>
       <c r="L21">
-        <v>-0.0001615435647943</v>
+        <v>-0.0002455890922577</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>-3.15850916637842</v>
       </c>
       <c r="O21" t="s">
         <v>44</v>
       </c>
       <c r="P21" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="Q21">
         <v>1799947</v>
@@ -2054,19 +2060,19 @@
         <v>5632818</v>
       </c>
       <c r="S21" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T21" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U21" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V21" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="W21" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2086,37 +2092,37 @@
         <v>40</v>
       </c>
       <c r="F22">
-        <v>0.0012200440397438</v>
+        <v>0.0914306152565265</v>
       </c>
       <c r="G22">
-        <v>0.0252100840336134</v>
+        <v>0.0168067226890756</v>
       </c>
       <c r="H22">
-        <v>0.915966386554622</v>
+        <v>0.890756302521008</v>
       </c>
       <c r="I22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>0.2395</v>
+        <v>0.248</v>
       </c>
       <c r="K22">
-        <v>0.0064573481116584</v>
+        <v>0.0025731898238747</v>
       </c>
       <c r="L22">
-        <v>0.0027506660570792</v>
+        <v>-0.0010033831255449</v>
       </c>
       <c r="M22">
-        <v>0.0113692320945977</v>
+        <v>0.0070236818788144</v>
       </c>
       <c r="N22">
-        <v>2.69617875225823</v>
+        <v>1.03757654188498</v>
       </c>
       <c r="O22" t="s">
         <v>44</v>
       </c>
       <c r="P22" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="Q22">
         <v>1799947</v>
@@ -2125,19 +2131,19 @@
         <v>5632818</v>
       </c>
       <c r="S22" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T22" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U22" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V22" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="W22" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2157,13 +2163,13 @@
         <v>40</v>
       </c>
       <c r="F23">
-        <v>0.951419657991169</v>
+        <v>0.685643181808086</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.632478632478632</v>
+        <v>0.634782608695652</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -2172,22 +2178,22 @@
         <v>7.66</v>
       </c>
       <c r="K23">
-        <v>0.0166612802750657</v>
+        <v>0.0056592810660056</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>-0.0120239670675435</v>
       </c>
       <c r="M23">
-        <v>0.0337490283658965</v>
+        <v>0.0244240121580547</v>
       </c>
       <c r="N23">
-        <v>0.21751018635856</v>
+        <v>0.0738809538643036</v>
       </c>
       <c r="O23" t="s">
         <v>44</v>
       </c>
       <c r="P23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q23">
         <v>1799947</v>
@@ -2196,16 +2202,16 @@
         <v>5632818</v>
       </c>
       <c r="S23" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T23" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U23" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V23" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2225,37 +2231,37 @@
         <v>40</v>
       </c>
       <c r="F24">
-        <v>0.0001867988871957</v>
+        <v>0.0470276531000183</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.823529411764706</v>
+        <v>0.8067226890756301</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.264</v>
+        <v>0.268</v>
       </c>
       <c r="K24">
-        <v>0.008447959183673401</v>
+        <v>0.0040137362637362</v>
       </c>
       <c r="L24">
-        <v>0.0043233729256242</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0.0126454497849287</v>
+        <v>0.008601440479693301</v>
       </c>
       <c r="N24">
-        <v>3.19998453927025</v>
+        <v>1.49766278497622</v>
       </c>
       <c r="O24" t="s">
         <v>44</v>
       </c>
       <c r="P24" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="Q24">
         <v>1799947</v>
@@ -2264,19 +2270,19 @@
         <v>5632818</v>
       </c>
       <c r="S24" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T24" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U24" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V24" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="W24" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2293,16 +2299,16 @@
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F25">
-        <v>0.0904826453850744</v>
+        <v>0.531404934317212</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.5630252100840339</v>
+        <v>0.478991596638655</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -2311,22 +2317,22 @@
         <v>0.42</v>
       </c>
       <c r="K25">
-        <v>0.0039983579638752</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>-0.0050141228376029</v>
       </c>
       <c r="M25">
-        <v>0.008024643777399899</v>
+        <v>0.004969387755102</v>
       </c>
       <c r="N25">
-        <v>0.951989991398859</v>
+        <v>0</v>
       </c>
       <c r="O25" t="s">
         <v>44</v>
       </c>
       <c r="P25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q25">
         <v>1799947</v>
@@ -2335,19 +2341,19 @@
         <v>5632818</v>
       </c>
       <c r="S25" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T25" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U25" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V25" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="W25" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2361,19 +2367,19 @@
         <v>10</v>
       </c>
       <c r="D26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" t="s">
         <v>40</v>
       </c>
       <c r="F26">
-        <v>0.016439821621883</v>
+        <v>0.0421685253381971</v>
       </c>
       <c r="G26">
         <v>0</v>
       </c>
       <c r="H26">
-        <v>0.336134453781513</v>
+        <v>0.327731092436975</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -2382,22 +2388,22 @@
         <v>0.027</v>
       </c>
       <c r="K26">
-        <v>0.0006020604395604</v>
+        <v>0.00038086548488</v>
       </c>
       <c r="L26">
         <v>0</v>
       </c>
       <c r="M26">
-        <v>0.001003434065934</v>
+        <v>0.0007991512872187</v>
       </c>
       <c r="N26">
-        <v>2.22985347985348</v>
+        <v>1.41061290696327</v>
       </c>
       <c r="O26" t="s">
         <v>44</v>
       </c>
       <c r="P26" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="Q26">
         <v>1799947</v>
@@ -2406,19 +2412,19 @@
         <v>5632818</v>
       </c>
       <c r="S26" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T26" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U26" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V26" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="W26" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2438,37 +2444,37 @@
         <v>40</v>
       </c>
       <c r="F27">
-        <v>0.180164160930541</v>
+        <v>0.386868729924581</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27">
-        <v>0.773109243697479</v>
+        <v>0.756302521008403</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27">
-        <v>1.64</v>
+        <v>1.57</v>
       </c>
       <c r="K27">
-        <v>0.0119492911668484</v>
+        <v>0.0049931647300068</v>
       </c>
       <c r="L27">
-        <v>-0.0116202702584849</v>
+        <v>-0.0299025749573216</v>
       </c>
       <c r="M27">
-        <v>0.0366874943620639</v>
+        <v>0.0314423040509262</v>
       </c>
       <c r="N27">
-        <v>0.728615315051731</v>
+        <v>0.31803597006413</v>
       </c>
       <c r="O27" t="s">
         <v>44</v>
       </c>
       <c r="P27" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="Q27">
         <v>1799947</v>
@@ -2477,19 +2483,19 @@
         <v>5632818</v>
       </c>
       <c r="S27" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T27" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U27" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V27" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="W27" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2509,37 +2515,37 @@
         <v>40</v>
       </c>
       <c r="F28">
-        <v>0.102644602995193</v>
+        <v>0.283357963978145</v>
       </c>
       <c r="G28">
         <v>0</v>
       </c>
       <c r="H28">
-        <v>0.66412213740458</v>
+        <v>0.6640625</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="J28">
-        <v>12.5</v>
+        <v>12.25</v>
       </c>
       <c r="K28">
-        <v>0.325595712983165</v>
+        <v>0.12799358974359</v>
       </c>
       <c r="L28">
-        <v>-0.0747593341398976</v>
+        <v>-0.272572593342166</v>
       </c>
       <c r="M28">
-        <v>0.96858741828434</v>
+        <v>0.659224718732637</v>
       </c>
       <c r="N28">
-        <v>2.60476570386532</v>
+        <v>1.04484563055992</v>
       </c>
       <c r="O28" t="s">
         <v>44</v>
       </c>
       <c r="P28" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q28">
         <v>1799947</v>
@@ -2548,19 +2554,19 @@
         <v>5632818</v>
       </c>
       <c r="S28" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T28" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U28" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V28" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="W28" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2580,37 +2586,37 @@
         <v>40</v>
       </c>
       <c r="F29">
-        <v>0.999975118832561</v>
+        <v>0.999499705287332</v>
       </c>
       <c r="G29">
-        <v>0.0135135135135135</v>
+        <v>0.0069444444444444</v>
       </c>
       <c r="H29">
-        <v>0.371621621621622</v>
+        <v>0.368055555555556</v>
       </c>
       <c r="I29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J29">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="K29">
-        <v>0.0585317114650738</v>
+        <v>0.0501717032967033</v>
       </c>
       <c r="L29">
-        <v>0.0333054711246201</v>
+        <v>0.0249968262126603</v>
       </c>
       <c r="M29">
-        <v>0.0857237528840388</v>
+        <v>0.0831009190256644</v>
       </c>
       <c r="N29">
-        <v>4.15118521028892</v>
+        <v>3.34478021978022</v>
       </c>
       <c r="O29" t="s">
         <v>44</v>
       </c>
       <c r="P29" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="Q29">
         <v>1799947</v>
@@ -2619,19 +2625,19 @@
         <v>5632818</v>
       </c>
       <c r="S29" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T29" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U29" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V29" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="W29" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2651,13 +2657,13 @@
         <v>40</v>
       </c>
       <c r="F30">
-        <v>0.145929390764422</v>
+        <v>0.278253989105415</v>
       </c>
       <c r="G30">
         <v>0</v>
       </c>
       <c r="H30">
-        <v>0.780346820809249</v>
+        <v>0.757225433526012</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -2666,16 +2672,16 @@
         <v>10.76</v>
       </c>
       <c r="K30">
-        <v>-0.0105799178167247</v>
+        <v>-0.0057181996086105</v>
       </c>
       <c r="L30">
-        <v>-0.0343769566692436</v>
+        <v>-0.024307866621834</v>
       </c>
       <c r="M30">
-        <v>0.0059291692077793</v>
+        <v>0.0109042420493675</v>
       </c>
       <c r="N30">
-        <v>-0.0983263737613822</v>
+        <v>-0.0531431190391317</v>
       </c>
       <c r="O30" t="s">
         <v>44</v>
@@ -2690,19 +2696,19 @@
         <v>5632818</v>
       </c>
       <c r="S30" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T30" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U30" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V30" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="W30" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2722,7 +2728,7 @@
         <v>40</v>
       </c>
       <c r="F31">
-        <v>0.0004636844597651</v>
+        <v>0.0020731637679243</v>
       </c>
       <c r="G31">
         <v>0.0168539325842697</v>
@@ -2737,22 +2743,22 @@
         <v>0.014</v>
       </c>
       <c r="K31">
-        <v>0.0003537530266343</v>
+        <v>0.0003099717114568</v>
       </c>
       <c r="L31">
-        <v>0.0001667047010497</v>
+        <v>0.0001159836875126</v>
       </c>
       <c r="M31">
-        <v>0.0005435267857142</v>
+        <v>0.0004939203630681</v>
       </c>
       <c r="N31">
-        <v>2.52680733310273</v>
+        <v>2.21408365326329</v>
       </c>
       <c r="O31" t="s">
         <v>44</v>
       </c>
       <c r="P31" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="Q31">
         <v>1799947</v>
@@ -2761,19 +2767,19 @@
         <v>5632818</v>
       </c>
       <c r="S31" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T31" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U31" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V31" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="W31" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2793,13 +2799,13 @@
         <v>40</v>
       </c>
       <c r="F32">
-        <v>0.973383814294346</v>
+        <v>0.990231697582398</v>
       </c>
       <c r="G32">
         <v>0</v>
       </c>
       <c r="H32">
-        <v>0.647727272727273</v>
+        <v>0.660919540229885</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -2808,22 +2814,22 @@
         <v>161.5</v>
       </c>
       <c r="K32">
-        <v>-2.82624032771962</v>
+        <v>-3.65582347588717</v>
       </c>
       <c r="L32">
-        <v>-6.07191052145831</v>
+        <v>-7.05365912720022</v>
       </c>
       <c r="M32">
-        <v>-0.315462775198938</v>
+        <v>-1.08949911190049</v>
       </c>
       <c r="N32">
-        <v>-1.7499940109719</v>
+        <v>-2.26366778692704</v>
       </c>
       <c r="O32" t="s">
         <v>44</v>
       </c>
       <c r="P32" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q32">
         <v>1799947</v>
@@ -2832,19 +2838,19 @@
         <v>5632818</v>
       </c>
       <c r="S32" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T32" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U32" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V32" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="W32" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2864,13 +2870,13 @@
         <v>42</v>
       </c>
       <c r="F33">
-        <v>0.629546836434284</v>
+        <v>0.515500454187015</v>
       </c>
       <c r="G33">
-        <v>0.56140350877193</v>
+        <v>0.550295857988166</v>
       </c>
       <c r="H33">
-        <v>0.43859649122807</v>
+        <v>0.449704142011834</v>
       </c>
       <c r="I33">
         <v>1</v>
@@ -2894,7 +2900,7 @@
         <v>44</v>
       </c>
       <c r="P33" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Q33">
         <v>1799947</v>
@@ -2903,19 +2909,19 @@
         <v>5632818</v>
       </c>
       <c r="S33" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T33" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U33" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V33" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="W33" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2935,13 +2941,13 @@
         <v>43</v>
       </c>
       <c r="F34">
-        <v>0.0078215863568979</v>
+        <v>0.0635937748663426</v>
       </c>
       <c r="G34">
-        <v>0.214285714285714</v>
+        <v>0.207865168539326</v>
       </c>
       <c r="H34">
-        <v>0.09523809523809521</v>
+        <v>0.0898876404494382</v>
       </c>
       <c r="I34">
         <v>2</v>
@@ -2950,22 +2956,22 @@
         <v>0.003</v>
       </c>
       <c r="K34">
-        <v>5.1372104734128E-05</v>
+        <v>0</v>
       </c>
       <c r="L34">
         <v>0</v>
       </c>
       <c r="M34">
-        <v>0.0001429549902152</v>
+        <v>8.69642857142857E-05</v>
       </c>
       <c r="N34">
-        <v>1.7124034911376</v>
+        <v>0</v>
       </c>
       <c r="O34" t="s">
         <v>44</v>
       </c>
       <c r="P34" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="Q34">
         <v>1799947</v>
@@ -2974,19 +2980,19 @@
         <v>5632818</v>
       </c>
       <c r="S34" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T34" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U34" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V34" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="W34" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -3006,13 +3012,13 @@
         <v>40</v>
       </c>
       <c r="F35">
-        <v>0.0129923905841186</v>
+        <v>0.0296002289392137</v>
       </c>
       <c r="G35">
-        <v>0.0178571428571429</v>
+        <v>0.0224719101123595</v>
       </c>
       <c r="H35">
-        <v>0.8988095238095239</v>
+        <v>0.8764044943820229</v>
       </c>
       <c r="I35">
         <v>1</v>
@@ -3021,22 +3027,22 @@
         <v>0.234</v>
       </c>
       <c r="K35">
-        <v>0.0031573020928116</v>
+        <v>0.002497726897201</v>
       </c>
       <c r="L35">
-        <v>0.0010021842754713</v>
+        <v>0.0004773839647479</v>
       </c>
       <c r="M35">
-        <v>0.0055770161900437</v>
+        <v>0.0042666290143573</v>
       </c>
       <c r="N35">
-        <v>1.34927439863746</v>
+        <v>1.06740465692352</v>
       </c>
       <c r="O35" t="s">
         <v>44</v>
       </c>
       <c r="P35" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="Q35">
         <v>1799947</v>
@@ -3045,19 +3051,19 @@
         <v>5632818</v>
       </c>
       <c r="S35" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T35" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U35" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V35" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="W35" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -3077,37 +3083,37 @@
         <v>40</v>
       </c>
       <c r="F36">
-        <v>0.729669273188817</v>
+        <v>0.345560834161051</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
       <c r="H36">
-        <v>0.563218390804598</v>
+        <v>0.552325581395349</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
       <c r="J36">
-        <v>7.66</v>
+        <v>7.67</v>
       </c>
       <c r="K36">
-        <v>0.0041302299283828</v>
+        <v>-0.0021545663917742</v>
       </c>
       <c r="L36">
-        <v>-0.0064636380908275</v>
+        <v>-0.0117442045397183</v>
       </c>
       <c r="M36">
-        <v>0.0146999363901217</v>
+        <v>0.0071477495107631</v>
       </c>
       <c r="N36">
-        <v>0.0539194507621785</v>
+        <v>-0.0280908264898852</v>
       </c>
       <c r="O36" t="s">
         <v>44</v>
       </c>
       <c r="P36" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q36">
         <v>1799947</v>
@@ -3116,16 +3122,16 @@
         <v>5632818</v>
       </c>
       <c r="S36" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T36" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U36" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V36" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3145,31 +3151,31 @@
         <v>40</v>
       </c>
       <c r="F37">
-        <v>0.0147074429134471</v>
+        <v>0.061897751881328</v>
       </c>
       <c r="G37">
         <v>0</v>
       </c>
       <c r="H37">
-        <v>0.837078651685393</v>
+        <v>0.820224719101124</v>
       </c>
       <c r="I37">
         <v>0</v>
       </c>
       <c r="J37">
-        <v>0.2544</v>
+        <v>0.255</v>
       </c>
       <c r="K37">
-        <v>0.003003897299509</v>
+        <v>0.0023043867713651</v>
       </c>
       <c r="L37">
-        <v>0.0008127095270621</v>
+        <v>-0.0001072529344266</v>
       </c>
       <c r="M37">
-        <v>0.0050340204647004</v>
+        <v>0.0045852145439731</v>
       </c>
       <c r="N37">
-        <v>1.18077724037304</v>
+        <v>0.90368108680985</v>
       </c>
       <c r="O37" t="s">
         <v>44</v>
@@ -3184,19 +3190,19 @@
         <v>5632818</v>
       </c>
       <c r="S37" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T37" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U37" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V37" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="W37" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3213,16 +3219,16 @@
         <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F38">
-        <v>0.374378446340352</v>
+        <v>0.784107028324468</v>
       </c>
       <c r="G38">
         <v>0</v>
       </c>
       <c r="H38">
-        <v>0.539325842696629</v>
+        <v>0.50561797752809</v>
       </c>
       <c r="I38">
         <v>0</v>
@@ -3231,22 +3237,22 @@
         <v>0.42</v>
       </c>
       <c r="K38">
-        <v>0</v>
+        <v>-0.0012465883375805</v>
       </c>
       <c r="L38">
-        <v>-0.0020032443492589</v>
+        <v>-0.0037854249509592</v>
       </c>
       <c r="M38">
-        <v>0.0033393580530434</v>
+        <v>0.0011003686871738</v>
       </c>
       <c r="N38">
-        <v>0</v>
+        <v>-0.296806747042982</v>
       </c>
       <c r="O38" t="s">
         <v>44</v>
       </c>
       <c r="P38" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q38">
         <v>1799947</v>
@@ -3255,19 +3261,19 @@
         <v>5632818</v>
       </c>
       <c r="S38" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T38" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U38" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V38" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="W38" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3287,37 +3293,37 @@
         <v>40</v>
       </c>
       <c r="F39">
-        <v>0.251033556644744</v>
+        <v>0.156906232550316</v>
       </c>
       <c r="G39">
         <v>0</v>
       </c>
       <c r="H39">
-        <v>0.286516853932584</v>
+        <v>0.275280898876405</v>
       </c>
       <c r="I39">
         <v>0</v>
       </c>
       <c r="J39">
-        <v>0.028</v>
+        <v>0.027</v>
       </c>
       <c r="K39">
-        <v>7.99857853351004E-05</v>
+        <v>0.0001425931493132</v>
       </c>
       <c r="L39">
-        <v>-0.0001577993593149</v>
+        <v>0</v>
       </c>
       <c r="M39">
-        <v>0.0003426164456889</v>
+        <v>0.0003782176548804</v>
       </c>
       <c r="N39">
-        <v>0.28566351905393</v>
+        <v>0.528122775234221</v>
       </c>
       <c r="O39" t="s">
         <v>44</v>
       </c>
       <c r="P39" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q39">
         <v>1799947</v>
@@ -3326,19 +3332,19 @@
         <v>5632818</v>
       </c>
       <c r="S39" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T39" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U39" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V39" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="W39" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3358,37 +3364,37 @@
         <v>40</v>
       </c>
       <c r="F40">
-        <v>0.652431992660112</v>
+        <v>0.608640615271445</v>
       </c>
       <c r="G40">
         <v>0</v>
       </c>
       <c r="H40">
-        <v>0.735955056179775</v>
+        <v>0.730337078651685</v>
       </c>
       <c r="I40">
         <v>0</v>
       </c>
       <c r="J40">
-        <v>1.615</v>
+        <v>1.535</v>
       </c>
       <c r="K40">
-        <v>-0.0062041614199265</v>
+        <v>-0.0039842333297636</v>
       </c>
       <c r="L40">
-        <v>-0.0233631966069918</v>
+        <v>-0.022343236940656</v>
       </c>
       <c r="M40">
-        <v>0.0131971562311054</v>
+        <v>0.0140623369316592</v>
       </c>
       <c r="N40">
-        <v>-0.384158601853036</v>
+        <v>-0.259559174577439</v>
       </c>
       <c r="O40" t="s">
         <v>44</v>
       </c>
       <c r="P40" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Q40">
         <v>1799947</v>
@@ -3397,19 +3403,19 @@
         <v>5632818</v>
       </c>
       <c r="S40" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T40" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U40" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V40" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="W40" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3429,13 +3435,13 @@
         <v>40</v>
       </c>
       <c r="F41">
-        <v>0.979654869675415</v>
+        <v>0.975263182580515</v>
       </c>
       <c r="G41">
-        <v>0.0108695652173913</v>
+        <v>0.0106382978723404</v>
       </c>
       <c r="H41">
-        <v>0.41304347826087</v>
+        <v>0.414893617021277</v>
       </c>
       <c r="I41">
         <v>2</v>
@@ -3444,22 +3450,22 @@
         <v>1.4215</v>
       </c>
       <c r="K41">
-        <v>0.022159952681867</v>
+        <v>0.0199972640225029</v>
       </c>
       <c r="L41">
         <v>0</v>
       </c>
       <c r="M41">
-        <v>0.0398689567692285</v>
+        <v>0.0371476424174779</v>
       </c>
       <c r="N41">
-        <v>1.5589133086083</v>
+        <v>1.40677200299</v>
       </c>
       <c r="O41" t="s">
         <v>44</v>
       </c>
       <c r="P41" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="Q41">
         <v>1799947</v>
@@ -3468,19 +3474,19 @@
         <v>5632818</v>
       </c>
       <c r="S41" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T41" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U41" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V41" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="W41" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -3488,49 +3494,49 @@
         <v>23</v>
       </c>
       <c r="B42" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C42">
         <v>20</v>
       </c>
       <c r="D42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E42" t="s">
         <v>40</v>
       </c>
       <c r="F42">
-        <v>0.153716702328933</v>
+        <v>0.002945541182035</v>
       </c>
       <c r="G42">
-        <v>0.0233644859813084</v>
+        <v>0</v>
       </c>
       <c r="H42">
-        <v>0.158878504672897</v>
+        <v>0.747474747474748</v>
       </c>
       <c r="I42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42">
-        <v>0.014</v>
+        <v>10.785</v>
       </c>
       <c r="K42">
-        <v>6.673670747304961E-05</v>
+        <v>-0.0272710303633648</v>
       </c>
       <c r="L42">
-        <v>0</v>
+        <v>-0.046929214123671</v>
       </c>
       <c r="M42">
-        <v>0.0002236548552542</v>
+        <v>-0.0102514052717183</v>
       </c>
       <c r="N42">
-        <v>0.47669076766464</v>
+        <v>-0.252860735868009</v>
       </c>
       <c r="O42" t="s">
         <v>44</v>
       </c>
       <c r="P42" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="Q42">
         <v>1799947</v>
@@ -3539,19 +3545,19 @@
         <v>5632818</v>
       </c>
       <c r="S42" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T42" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U42" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V42" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="W42" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -3559,49 +3565,49 @@
         <v>23</v>
       </c>
       <c r="B43" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C43">
         <v>20</v>
       </c>
       <c r="D43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E43" t="s">
         <v>40</v>
       </c>
       <c r="F43">
-        <v>0.893316807717732</v>
+        <v>0.10341049460579</v>
       </c>
       <c r="G43">
-        <v>0.009478672985781899</v>
+        <v>0.0221238938053097</v>
       </c>
       <c r="H43">
-        <v>0.630331753554502</v>
+        <v>0.150442477876106</v>
       </c>
       <c r="I43">
         <v>1</v>
       </c>
       <c r="J43">
-        <v>150</v>
+        <v>0.014</v>
       </c>
       <c r="K43">
-        <v>-1.33072282895561</v>
+        <v>7.77955271565496E-05</v>
       </c>
       <c r="L43">
-        <v>-3.51630725037014</v>
+        <v>0</v>
       </c>
       <c r="M43">
-        <v>0.458235962576099</v>
+        <v>0.000215440090583</v>
       </c>
       <c r="N43">
-        <v>-0.887148552637072</v>
+        <v>0.555682336832497</v>
       </c>
       <c r="O43" t="s">
         <v>44</v>
       </c>
       <c r="P43" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="Q43">
         <v>1799947</v>
@@ -3610,19 +3616,19 @@
         <v>5632818</v>
       </c>
       <c r="S43" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T43" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U43" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V43" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="W43" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -3630,7 +3636,7 @@
         <v>23</v>
       </c>
       <c r="B44" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C44">
         <v>20</v>
@@ -3639,40 +3645,40 @@
         <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F44">
-        <v>0.165693548123807</v>
+        <v>0.938321032580911</v>
       </c>
       <c r="G44">
-        <v>0.572815533980582</v>
+        <v>0.009049773755656101</v>
       </c>
       <c r="H44">
-        <v>0.412621359223301</v>
+        <v>0.660633484162896</v>
       </c>
       <c r="I44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J44">
-        <v>0.005</v>
+        <v>147.6</v>
       </c>
       <c r="K44">
-        <v>0</v>
+        <v>-1.55425531914894</v>
       </c>
       <c r="L44">
-        <v>0</v>
+        <v>-3.63303773320497</v>
       </c>
       <c r="M44">
         <v>0</v>
       </c>
       <c r="N44">
-        <v>0</v>
+        <v>-1.05301850890849</v>
       </c>
       <c r="O44" t="s">
         <v>44</v>
       </c>
       <c r="P44" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="Q44">
         <v>1799947</v>
@@ -3681,19 +3687,19 @@
         <v>5632818</v>
       </c>
       <c r="S44" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T44" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U44" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V44" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="W44" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -3701,7 +3707,7 @@
         <v>23</v>
       </c>
       <c r="B45" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C45">
         <v>20</v>
@@ -3710,34 +3716,34 @@
         <v>1</v>
       </c>
       <c r="E45" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F45">
-        <v>0.0368097136443976</v>
+        <v>0.0690821703812948</v>
       </c>
       <c r="G45">
-        <v>0.0205128205128205</v>
+        <v>0.569444444444444</v>
       </c>
       <c r="H45">
-        <v>0.825641025641026</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="I45">
         <v>2</v>
       </c>
       <c r="J45">
-        <v>0.2392</v>
+        <v>0.005</v>
       </c>
       <c r="K45">
-        <v>0.002125</v>
+        <v>0</v>
       </c>
       <c r="L45">
-        <v>9.048396155191939E-05</v>
+        <v>0</v>
       </c>
       <c r="M45">
-        <v>0.0038186227673272</v>
+        <v>0</v>
       </c>
       <c r="N45">
-        <v>0.888377926421404</v>
+        <v>0</v>
       </c>
       <c r="O45" t="s">
         <v>44</v>
@@ -3752,19 +3758,19 @@
         <v>5632818</v>
       </c>
       <c r="S45" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T45" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U45" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V45" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="W45" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -3772,7 +3778,7 @@
         <v>23</v>
       </c>
       <c r="B46" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C46">
         <v>20</v>
@@ -3784,37 +3790,37 @@
         <v>40</v>
       </c>
       <c r="F46">
-        <v>0.0399247790103612</v>
+        <v>0.0493944440099273</v>
       </c>
       <c r="G46">
-        <v>0.0046728971962616</v>
+        <v>0.0241545893719807</v>
       </c>
       <c r="H46">
-        <v>0.813084112149533</v>
+        <v>0.811594202898551</v>
       </c>
       <c r="I46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J46">
-        <v>0.2578</v>
+        <v>0.2392</v>
       </c>
       <c r="K46">
-        <v>0.0019405452638115</v>
+        <v>0.0017621488592818</v>
       </c>
       <c r="L46">
         <v>0</v>
       </c>
       <c r="M46">
-        <v>0.0036267332089365</v>
+        <v>0.0033559834083696</v>
       </c>
       <c r="N46">
-        <v>0.752732840888879</v>
+        <v>0.736684305719848</v>
       </c>
       <c r="O46" t="s">
         <v>44</v>
       </c>
       <c r="P46" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="Q46">
         <v>1799947</v>
@@ -3823,19 +3829,19 @@
         <v>5632818</v>
       </c>
       <c r="S46" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T46" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U46" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V46" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="W46" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -3843,49 +3849,49 @@
         <v>23</v>
       </c>
       <c r="B47" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C47">
         <v>20</v>
       </c>
       <c r="D47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E47" t="s">
         <v>40</v>
       </c>
       <c r="F47">
-        <v>0.301234856886931</v>
+        <v>0.925900833481061</v>
       </c>
       <c r="G47">
         <v>0</v>
       </c>
       <c r="H47">
-        <v>0.714953271028037</v>
+        <v>0.5242718446601941</v>
       </c>
       <c r="I47">
         <v>0</v>
       </c>
       <c r="J47">
-        <v>1.54</v>
+        <v>7.62</v>
       </c>
       <c r="K47">
-        <v>0.0049733349102823</v>
+        <v>0.0077878464818764</v>
       </c>
       <c r="L47">
-        <v>-0.0100008438881034</v>
+        <v>-0.0008916800599343</v>
       </c>
       <c r="M47">
-        <v>0.0167940004018799</v>
+        <v>0.0170653490913552</v>
       </c>
       <c r="N47">
-        <v>0.322943825343007</v>
+        <v>0.102202709735911</v>
       </c>
       <c r="O47" t="s">
         <v>44</v>
       </c>
       <c r="P47" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="Q47">
         <v>1799947</v>
@@ -3894,19 +3900,16 @@
         <v>5632818</v>
       </c>
       <c r="S47" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T47" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U47" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V47" t="s">
-        <v>61</v>
-      </c>
-      <c r="W47" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -3914,49 +3917,49 @@
         <v>23</v>
       </c>
       <c r="B48" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C48">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E48" t="s">
         <v>40</v>
       </c>
       <c r="F48">
-        <v>0.40324797025367</v>
+        <v>0.0529824152026664</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>0.0044247787610619</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0.800884955752212</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48">
-        <v>0.44</v>
+        <v>0.2578</v>
       </c>
       <c r="K48">
-        <v>-0.005313925680424</v>
+        <v>0.00155322760701</v>
       </c>
       <c r="L48">
-        <v>-0.08978632183126289</v>
+        <v>0</v>
       </c>
       <c r="M48">
-        <v>0.037183361723812</v>
+        <v>0.0032033342379269</v>
       </c>
       <c r="N48">
-        <v>-1.20771038191456</v>
+        <v>0.602493253301008</v>
       </c>
       <c r="O48" t="s">
         <v>44</v>
       </c>
       <c r="P48" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="Q48">
         <v>1799947</v>
@@ -3965,231 +3968,243 @@
         <v>5632818</v>
       </c>
       <c r="S48" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T48" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U48" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V48" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="49" spans="1:22">
+        <v>63</v>
+      </c>
+      <c r="W48" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23">
       <c r="A49" t="s">
         <v>23</v>
       </c>
       <c r="B49" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C49">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E49" t="s">
         <v>40</v>
       </c>
       <c r="F49">
+        <v>0.130903612715874</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0.457943925233645</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0.41</v>
+      </c>
+      <c r="K49">
+        <v>0.0014223130841121</v>
+      </c>
+      <c r="L49">
+        <v>-0.0004997084592977</v>
+      </c>
+      <c r="M49">
+        <v>0.0038362234193805</v>
+      </c>
+      <c r="N49">
+        <v>0.346905630271256</v>
+      </c>
+      <c r="O49" t="s">
+        <v>44</v>
+      </c>
+      <c r="P49" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q49">
+        <v>1799947</v>
+      </c>
+      <c r="R49">
+        <v>5632818</v>
+      </c>
+      <c r="S49" t="s">
+        <v>60</v>
+      </c>
+      <c r="T49" t="s">
+        <v>61</v>
+      </c>
+      <c r="U49" t="s">
+        <v>62</v>
+      </c>
+      <c r="V49" t="s">
+        <v>63</v>
+      </c>
+      <c r="W49" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23">
+      <c r="A50" t="s">
+        <v>23</v>
+      </c>
+      <c r="B50" t="s">
+        <v>35</v>
+      </c>
+      <c r="C50">
+        <v>20</v>
+      </c>
+      <c r="D50" t="b">
+        <v>0</v>
+      </c>
+      <c r="E50" t="s">
+        <v>41</v>
+      </c>
+      <c r="F50">
+        <v>0.5068657439911149</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0.247663551401869</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0.0275</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>-0.000175102153443</v>
+      </c>
+      <c r="M50">
+        <v>0.000175930566783</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+      <c r="O50" t="s">
+        <v>44</v>
+      </c>
+      <c r="P50" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q50">
+        <v>1799947</v>
+      </c>
+      <c r="R50">
+        <v>5632818</v>
+      </c>
+      <c r="S50" t="s">
+        <v>60</v>
+      </c>
+      <c r="T50" t="s">
+        <v>61</v>
+      </c>
+      <c r="U50" t="s">
+        <v>62</v>
+      </c>
+      <c r="V50" t="s">
+        <v>63</v>
+      </c>
+      <c r="W50" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23">
+      <c r="A51" t="s">
+        <v>23</v>
+      </c>
+      <c r="B51" t="s">
+        <v>36</v>
+      </c>
+      <c r="C51">
+        <v>20</v>
+      </c>
+      <c r="D51" t="b">
+        <v>1</v>
+      </c>
+      <c r="E51" t="s">
+        <v>41</v>
+      </c>
+      <c r="F51">
         <v>0.5</v>
       </c>
-      <c r="G49">
-        <v>0</v>
-      </c>
-      <c r="H49">
-        <v>1</v>
-      </c>
-      <c r="I49">
-        <v>0</v>
-      </c>
-      <c r="J49">
-        <v>109.23</v>
-      </c>
-      <c r="K49">
-        <v>0.192630017886658</v>
-      </c>
-      <c r="L49">
-        <v>-9.1143939930359</v>
-      </c>
-      <c r="M49">
-        <v>2.47473468294839</v>
-      </c>
-      <c r="N49">
-        <v>0.176352666746002</v>
-      </c>
-      <c r="O49" t="s">
-        <v>44</v>
-      </c>
-      <c r="P49" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q49">
-        <v>1799947</v>
-      </c>
-      <c r="R49">
-        <v>5632818</v>
-      </c>
-      <c r="S49" t="s">
-        <v>58</v>
-      </c>
-      <c r="T49" t="s">
-        <v>59</v>
-      </c>
-      <c r="U49" t="s">
-        <v>60</v>
-      </c>
-      <c r="V49" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="50" spans="1:22">
-      <c r="A50" t="s">
-        <v>23</v>
-      </c>
-      <c r="B50" t="s">
-        <v>39</v>
-      </c>
-      <c r="C50">
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0.70353982300885</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>1.515</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>-0.0127823199275772</v>
+      </c>
+      <c r="M51">
+        <v>0.0102211693204693</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+      <c r="O51" t="s">
+        <v>44</v>
+      </c>
+      <c r="P51" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q51">
+        <v>1799947</v>
+      </c>
+      <c r="R51">
+        <v>5632818</v>
+      </c>
+      <c r="S51" t="s">
+        <v>60</v>
+      </c>
+      <c r="T51" t="s">
+        <v>61</v>
+      </c>
+      <c r="U51" t="s">
+        <v>62</v>
+      </c>
+      <c r="V51" t="s">
+        <v>63</v>
+      </c>
+      <c r="W51" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23">
+      <c r="A52" t="s">
+        <v>23</v>
+      </c>
+      <c r="B52" t="s">
+        <v>37</v>
+      </c>
+      <c r="C52">
         <v>5</v>
-      </c>
-      <c r="D50" t="b">
-        <v>0</v>
-      </c>
-      <c r="E50" t="s">
-        <v>40</v>
-      </c>
-      <c r="F50">
-        <v>0.5</v>
-      </c>
-      <c r="G50">
-        <v>0</v>
-      </c>
-      <c r="H50">
-        <v>1</v>
-      </c>
-      <c r="I50">
-        <v>0</v>
-      </c>
-      <c r="J50">
-        <v>4.78</v>
-      </c>
-      <c r="K50">
-        <v>0.0621085038526088</v>
-      </c>
-      <c r="L50">
-        <v>-0.990649944844356</v>
-      </c>
-      <c r="M50">
-        <v>0.480196708780311</v>
-      </c>
-      <c r="N50">
-        <v>1.29934108478261</v>
-      </c>
-      <c r="O50" t="s">
-        <v>44</v>
-      </c>
-      <c r="P50" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q50">
-        <v>1799947</v>
-      </c>
-      <c r="R50">
-        <v>5632818</v>
-      </c>
-      <c r="S50" t="s">
-        <v>58</v>
-      </c>
-      <c r="T50" t="s">
-        <v>59</v>
-      </c>
-      <c r="U50" t="s">
-        <v>60</v>
-      </c>
-      <c r="V50" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="51" spans="1:22">
-      <c r="A51" t="s">
-        <v>23</v>
-      </c>
-      <c r="B51" t="s">
-        <v>37</v>
-      </c>
-      <c r="C51">
-        <v>10</v>
-      </c>
-      <c r="D51" t="b">
-        <v>0</v>
-      </c>
-      <c r="E51" t="s">
-        <v>40</v>
-      </c>
-      <c r="F51">
-        <v>0.001178763797898</v>
-      </c>
-      <c r="G51">
-        <v>0</v>
-      </c>
-      <c r="H51">
-        <v>1</v>
-      </c>
-      <c r="I51">
-        <v>0</v>
-      </c>
-      <c r="J51">
-        <v>0.534</v>
-      </c>
-      <c r="K51">
-        <v>-0.0234106824925816</v>
-      </c>
-      <c r="L51">
-        <v>-0.0396731577976372</v>
-      </c>
-      <c r="M51">
-        <v>-0.0154199340570847</v>
-      </c>
-      <c r="N51">
-        <v>-4.3840229386857</v>
-      </c>
-      <c r="O51" t="s">
-        <v>44</v>
-      </c>
-      <c r="P51" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q51">
-        <v>1799947</v>
-      </c>
-      <c r="R51">
-        <v>5632818</v>
-      </c>
-      <c r="S51" t="s">
-        <v>58</v>
-      </c>
-      <c r="T51" t="s">
-        <v>59</v>
-      </c>
-      <c r="U51" t="s">
-        <v>60</v>
-      </c>
-      <c r="V51" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="52" spans="1:22">
-      <c r="A52" t="s">
-        <v>23</v>
-      </c>
-      <c r="B52" t="s">
-        <v>38</v>
-      </c>
-      <c r="C52">
-        <v>10</v>
       </c>
       <c r="D52" t="b">
         <v>0</v>
@@ -4198,7 +4213,7 @@
         <v>40</v>
       </c>
       <c r="F52">
-        <v>0.185546684761349</v>
+        <v>0.59675202974633</v>
       </c>
       <c r="G52">
         <v>0</v>
@@ -4210,25 +4225,25 @@
         <v>0</v>
       </c>
       <c r="J52">
-        <v>110.86</v>
+        <v>0.44</v>
       </c>
       <c r="K52">
-        <v>-0.832012954239569</v>
+        <v>0.0291876013481609</v>
       </c>
       <c r="L52">
-        <v>-1.96827952617287</v>
+        <v>-0.0594022809014467</v>
       </c>
       <c r="M52">
-        <v>0.505271754036565</v>
+        <v>0.0639824677529303</v>
       </c>
       <c r="N52">
-        <v>-0.750507806458207</v>
+        <v>6.63354576094566</v>
       </c>
       <c r="O52" t="s">
         <v>44</v>
       </c>
       <c r="P52" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="Q52">
         <v>1799947</v>
@@ -4237,27 +4252,27 @@
         <v>5632818</v>
       </c>
       <c r="S52" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T52" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U52" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V52" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="53" spans="1:22">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23">
       <c r="A53" t="s">
         <v>23</v>
       </c>
       <c r="B53" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C53">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D53" t="b">
         <v>0</v>
@@ -4266,7 +4281,7 @@
         <v>40</v>
       </c>
       <c r="F53">
-        <v>0.237137175383665</v>
+        <v>0.768783636774762</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -4278,19 +4293,19 @@
         <v>0</v>
       </c>
       <c r="J53">
-        <v>5.0305</v>
+        <v>109.23</v>
       </c>
       <c r="K53">
-        <v>-0.094139131897712</v>
+        <v>1.22574404410201</v>
       </c>
       <c r="L53">
-        <v>-0.29765809644159</v>
+        <v>-6.53961245469025</v>
       </c>
       <c r="M53">
-        <v>0.0782706038821514</v>
+        <v>2.06149553871734</v>
       </c>
       <c r="N53">
-        <v>-1.87136729743986</v>
+        <v>1.12216794296622</v>
       </c>
       <c r="O53" t="s">
         <v>44</v>
@@ -4305,27 +4320,27 @@
         <v>5632818</v>
       </c>
       <c r="S53" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T53" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U53" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V53" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="54" spans="1:22">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23">
       <c r="A54" t="s">
         <v>23</v>
       </c>
       <c r="B54" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C54">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D54" t="b">
         <v>0</v>
@@ -4334,7 +4349,7 @@
         <v>40</v>
       </c>
       <c r="F54">
-        <v>0.014269531785181</v>
+        <v>0.5</v>
       </c>
       <c r="G54">
         <v>0</v>
@@ -4346,25 +4361,25 @@
         <v>0</v>
       </c>
       <c r="J54">
-        <v>0.534</v>
+        <v>4.899</v>
       </c>
       <c r="K54">
-        <v>-0.0140637555803571</v>
+        <v>0.113286579301853</v>
       </c>
       <c r="L54">
-        <v>-0.024140093551697</v>
+        <v>-0.60446309974168</v>
       </c>
       <c r="M54">
-        <v>-0.0065579992401985</v>
+        <v>0.85759678540207</v>
       </c>
       <c r="N54">
-        <v>-2.63366209369984</v>
+        <v>2.31244293328951</v>
       </c>
       <c r="O54" t="s">
         <v>44</v>
       </c>
       <c r="P54" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="Q54">
         <v>1799947</v>
@@ -4373,27 +4388,27 @@
         <v>5632818</v>
       </c>
       <c r="S54" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T54" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U54" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V54" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="55" spans="1:22">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23">
       <c r="A55" t="s">
         <v>23</v>
       </c>
       <c r="B55" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C55">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D55" t="b">
         <v>0</v>
@@ -4402,37 +4417,37 @@
         <v>40</v>
       </c>
       <c r="F55">
-        <v>0.005753032131482</v>
+        <v>0.0100223343113141</v>
       </c>
       <c r="G55">
         <v>0</v>
       </c>
       <c r="H55">
-        <v>0.933333333333333</v>
+        <v>1</v>
       </c>
       <c r="I55">
         <v>0</v>
       </c>
       <c r="J55">
-        <v>112</v>
+        <v>0.5165</v>
       </c>
       <c r="K55">
-        <v>-1.14910112359551</v>
+        <v>-0.0140637555803571</v>
       </c>
       <c r="L55">
-        <v>-1.83697226798072</v>
+        <v>-0.0324249552648559</v>
       </c>
       <c r="M55">
-        <v>-0.5016877045932731</v>
+        <v>-0.0055311561671025</v>
       </c>
       <c r="N55">
-        <v>-1.02598314606742</v>
+        <v>-2.72289556250864</v>
       </c>
       <c r="O55" t="s">
         <v>44</v>
       </c>
       <c r="P55" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="Q55">
         <v>1799947</v>
@@ -4441,27 +4456,27 @@
         <v>5632818</v>
       </c>
       <c r="S55" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T55" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U55" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V55" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="56" spans="1:22">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23">
       <c r="A56" t="s">
         <v>23</v>
       </c>
       <c r="B56" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C56">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D56" t="b">
         <v>0</v>
@@ -4470,7 +4485,7 @@
         <v>40</v>
       </c>
       <c r="F56">
-        <v>0.094443738769769</v>
+        <v>0.429013828493761</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -4482,25 +4497,25 @@
         <v>0</v>
       </c>
       <c r="J56">
-        <v>5.1505</v>
+        <v>109.8</v>
       </c>
       <c r="K56">
-        <v>-0.12175</v>
+        <v>-0.132224964739068</v>
       </c>
       <c r="L56">
-        <v>-0.269754116053482</v>
+        <v>-1.30338095591388</v>
       </c>
       <c r="M56">
-        <v>0.0115460962960189</v>
+        <v>1.16067911698623</v>
       </c>
       <c r="N56">
-        <v>-2.36384817008057</v>
+        <v>-0.120423465153979</v>
       </c>
       <c r="O56" t="s">
         <v>44</v>
       </c>
       <c r="P56" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q56">
         <v>1799947</v>
@@ -4509,16 +4524,288 @@
         <v>5632818</v>
       </c>
       <c r="S56" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T56" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U56" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V56" t="s">
-        <v>61</v>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23">
+      <c r="A57" t="s">
+        <v>23</v>
+      </c>
+      <c r="B57" t="s">
+        <v>39</v>
+      </c>
+      <c r="C57">
+        <v>10</v>
+      </c>
+      <c r="D57" t="b">
+        <v>0</v>
+      </c>
+      <c r="E57" t="s">
+        <v>40</v>
+      </c>
+      <c r="F57">
+        <v>0.237137175383665</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>1</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>4.9195</v>
+      </c>
+      <c r="K57">
+        <v>-0.094139131897712</v>
+      </c>
+      <c r="L57">
+        <v>-0.292273291426024</v>
+      </c>
+      <c r="M57">
+        <v>0.0805882561447011</v>
+      </c>
+      <c r="N57">
+        <v>-1.91359146046777</v>
+      </c>
+      <c r="O57" t="s">
+        <v>44</v>
+      </c>
+      <c r="P57" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q57">
+        <v>1799947</v>
+      </c>
+      <c r="R57">
+        <v>5632818</v>
+      </c>
+      <c r="S57" t="s">
+        <v>60</v>
+      </c>
+      <c r="T57" t="s">
+        <v>61</v>
+      </c>
+      <c r="U57" t="s">
+        <v>62</v>
+      </c>
+      <c r="V57" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23">
+      <c r="A58" t="s">
+        <v>23</v>
+      </c>
+      <c r="B58" t="s">
+        <v>37</v>
+      </c>
+      <c r="C58">
+        <v>15</v>
+      </c>
+      <c r="D58" t="b">
+        <v>0</v>
+      </c>
+      <c r="E58" t="s">
+        <v>40</v>
+      </c>
+      <c r="F58">
+        <v>0.014724052107137</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>1</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0.52</v>
+      </c>
+      <c r="K58">
+        <v>-0.010449931880109</v>
+      </c>
+      <c r="L58">
+        <v>-0.0208235567768661</v>
+      </c>
+      <c r="M58">
+        <v>-0.0049468863774839</v>
+      </c>
+      <c r="N58">
+        <v>-2.00960228463634</v>
+      </c>
+      <c r="O58" t="s">
+        <v>44</v>
+      </c>
+      <c r="P58" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q58">
+        <v>1799947</v>
+      </c>
+      <c r="R58">
+        <v>5632818</v>
+      </c>
+      <c r="S58" t="s">
+        <v>60</v>
+      </c>
+      <c r="T58" t="s">
+        <v>61</v>
+      </c>
+      <c r="U58" t="s">
+        <v>62</v>
+      </c>
+      <c r="V58" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23">
+      <c r="A59" t="s">
+        <v>23</v>
+      </c>
+      <c r="B59" t="s">
+        <v>38</v>
+      </c>
+      <c r="C59">
+        <v>15</v>
+      </c>
+      <c r="D59" t="b">
+        <v>0</v>
+      </c>
+      <c r="E59" t="s">
+        <v>40</v>
+      </c>
+      <c r="F59">
+        <v>0.009936154756746</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0.933333333333333</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>112</v>
+      </c>
+      <c r="K59">
+        <v>-1.00990783410138</v>
+      </c>
+      <c r="L59">
+        <v>-1.82974346056723</v>
+      </c>
+      <c r="M59">
+        <v>-0.272172828090206</v>
+      </c>
+      <c r="N59">
+        <v>-0.901703423304806</v>
+      </c>
+      <c r="O59" t="s">
+        <v>44</v>
+      </c>
+      <c r="P59" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q59">
+        <v>1799947</v>
+      </c>
+      <c r="R59">
+        <v>5632818</v>
+      </c>
+      <c r="S59" t="s">
+        <v>60</v>
+      </c>
+      <c r="T59" t="s">
+        <v>61</v>
+      </c>
+      <c r="U59" t="s">
+        <v>62</v>
+      </c>
+      <c r="V59" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23">
+      <c r="A60" t="s">
+        <v>23</v>
+      </c>
+      <c r="B60" t="s">
+        <v>39</v>
+      </c>
+      <c r="C60">
+        <v>15</v>
+      </c>
+      <c r="D60" t="b">
+        <v>0</v>
+      </c>
+      <c r="E60" t="s">
+        <v>40</v>
+      </c>
+      <c r="F60">
+        <v>0.082928330171455</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>1</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>5.121</v>
+      </c>
+      <c r="K60">
+        <v>-0.094139131897712</v>
+      </c>
+      <c r="L60">
+        <v>-0.23657189669102</v>
+      </c>
+      <c r="M60">
+        <v>0.0102467015740323</v>
+      </c>
+      <c r="N60">
+        <v>-1.83829587771357</v>
+      </c>
+      <c r="O60" t="s">
+        <v>44</v>
+      </c>
+      <c r="P60" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q60">
+        <v>1799947</v>
+      </c>
+      <c r="R60">
+        <v>5632818</v>
+      </c>
+      <c r="S60" t="s">
+        <v>60</v>
+      </c>
+      <c r="T60" t="s">
+        <v>61</v>
+      </c>
+      <c r="U60" t="s">
+        <v>62</v>
+      </c>
+      <c r="V60" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
